--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_0_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1443734.844649866</v>
+        <v>-1444299.210225642</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>234.2953140259425</v>
       </c>
       <c r="E2" t="n">
-        <v>35.70559250379682</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
         <v>274.2838073416025</v>
@@ -677,10 +677,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>32.84686993197805</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>113.5790790722109</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="C4" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11.57657371040608</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14.24973044685159</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>19.28147519074924</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>50.57222303883037</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>66.92017160048464</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11.57657371040602</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>164.1387169237751</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>270.7592387672937</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1151,10 +1151,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>145.9899482601506</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>51.20404731107002</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -1272,13 +1272,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>59.33202238395851</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>17.27905463269151</v>
       </c>
       <c r="V10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>266.5450387985705</v>
+        <v>266.5450387985706</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>249.8137244861182</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>265.946664562463</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>290.1224922877163</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.4685616770244</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>218.7723785066849</v>
       </c>
       <c r="I11" t="n">
-        <v>79.77060540895523</v>
+        <v>79.77060540895525</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1844773453005</v>
+        <v>11.18447734530051</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>104.8533165860893</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4.53626260459933</v>
+        <v>134.2892057810014</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>91.77539370469722</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>233.3587458077301</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>253.6902279383449</v>
       </c>
       <c r="Y11" t="n">
         <v>269.5157005584114</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.20075441752036</v>
+        <v>48.20075441752037</v>
       </c>
       <c r="C12" t="n">
-        <v>53.85421273457652</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>28.94105238182109</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>38.86206251434936</v>
+        <v>78.49447798747626</v>
       </c>
       <c r="F12" t="n">
-        <v>26.33486089072483</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>18.73689347292734</v>
+        <v>18.73689347292736</v>
       </c>
       <c r="H12" t="n">
         <v>109.3523836031955</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>82.54598871358354</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>87.55827338303665</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>166.8265509280334</v>
       </c>
       <c r="T12" t="n">
-        <v>115.3679803322408</v>
+        <v>80.74784952856713</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6496148606689</v>
+        <v>107.4782436678445</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>114.7373598468307</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -1515,7 +1515,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>86.49978022576157</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>62.91232029785935</v>
       </c>
       <c r="C13" t="n">
-        <v>50.16518173837787</v>
+        <v>50.16518173837788</v>
       </c>
       <c r="D13" t="n">
-        <v>31.83419532169489</v>
+        <v>31.83419532169491</v>
       </c>
       <c r="E13" t="n">
-        <v>29.80325298037471</v>
+        <v>29.80325298037472</v>
       </c>
       <c r="F13" t="n">
-        <v>28.98765021698003</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.62185125841335</v>
+        <v>50.62185125841337</v>
       </c>
       <c r="H13" t="n">
-        <v>43.60591521304602</v>
+        <v>43.60591521304604</v>
       </c>
       <c r="I13" t="n">
-        <v>33.68917276728133</v>
+        <v>33.68917276728134</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.88678916339221</v>
+        <v>51.88678916339224</v>
       </c>
       <c r="S13" t="n">
-        <v>103.5066308595594</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>110.7493471162376</v>
       </c>
       <c r="U13" t="n">
-        <v>130.3774350202498</v>
+        <v>31.0381901043389</v>
       </c>
       <c r="V13" t="n">
         <v>135.7649798741147</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>168.9212056945911</v>
       </c>
       <c r="X13" t="n">
         <v>108.9689887394848</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.433361561774</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>51.31490464250255</v>
+        <v>216.5413975389268</v>
       </c>
       <c r="F14" t="n">
         <v>290.1224922877165</v>
       </c>
       <c r="G14" t="n">
-        <v>297.4685616770245</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.77060540895532</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.18447734530058</v>
+        <v>11.18447734530056</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.79808416259807</v>
       </c>
       <c r="T14" t="n">
         <v>104.8533165860894</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>134.2892057810014</v>
       </c>
       <c r="V14" t="n">
-        <v>211.361850329695</v>
+        <v>211.3618503296949</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>233.3587458077302</v>
       </c>
       <c r="X14" t="n">
         <v>253.690227938345</v>
@@ -1686,19 +1686,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>53.85421273457658</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>38.86206251434942</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>26.33486089072488</v>
       </c>
       <c r="G15" t="n">
-        <v>50.55032135642431</v>
+        <v>18.7368934729274</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>49.65517973520902</v>
+        <v>81.4686076187066</v>
       </c>
       <c r="T15" t="n">
-        <v>80.7478495285672</v>
+        <v>197.9192207213916</v>
       </c>
       <c r="U15" t="n">
-        <v>107.4782436678446</v>
+        <v>224.6496148606689</v>
       </c>
       <c r="V15" t="n">
         <v>114.7373598468307</v>
       </c>
       <c r="W15" t="n">
-        <v>132.8179755571757</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.91232029785942</v>
+        <v>62.9123202978594</v>
       </c>
       <c r="C16" t="n">
-        <v>50.16518173837795</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>31.83419532169498</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>29.80325298037479</v>
+        <v>29.80325298037477</v>
       </c>
       <c r="F16" t="n">
-        <v>28.98765021698011</v>
+        <v>28.98765021698009</v>
       </c>
       <c r="G16" t="n">
-        <v>50.62185125841344</v>
+        <v>50.62185125841341</v>
       </c>
       <c r="H16" t="n">
-        <v>43.60591521304611</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>33.68917276728141</v>
+        <v>33.68917276728138</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.88678916339229</v>
+        <v>51.88678916339227</v>
       </c>
       <c r="S16" t="n">
-        <v>103.5066308595595</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>110.7493471162377</v>
@@ -1822,16 +1822,16 @@
         <v>168.8756428448469</v>
       </c>
       <c r="V16" t="n">
-        <v>135.7649798741148</v>
+        <v>135.7649798741147</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1667745524855304</v>
+        <v>127.7013950102204</v>
       </c>
       <c r="X16" t="n">
-        <v>108.9689887394849</v>
+        <v>108.9689887394848</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>101.5773026749438</v>
       </c>
     </row>
     <row r="17">
@@ -1926,13 +1926,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>55.49145783886041</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>82.54598871358354</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.8265509280334</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>20.23923246161111</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6496148606689</v>
+        <v>13.13549208739772</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9.021823055071373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.578376990908847</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>9.163879279112626</v>
+        <v>9.163879279112624</v>
       </c>
       <c r="T19" t="n">
-        <v>21.85004159995335</v>
+        <v>16.40659553579086</v>
       </c>
       <c r="U19" t="n">
         <v>74.53289126440006</v>
@@ -2141,7 +2141,7 @@
         <v>117.0190987492481</v>
       </c>
       <c r="W20" t="n">
-        <v>139.0159942272827</v>
+        <v>139.0159942272834</v>
       </c>
       <c r="X20" t="n">
         <v>159.3474763578982</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -2169,10 +2169,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>55.49145783886063</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.9082646657518</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.8265509280334</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.9192207213916</v>
       </c>
       <c r="U21" t="n">
         <v>224.6496148606689</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>95.75050805308508</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2226,7 +2226,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>9.021823055071373</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.578376990908833</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>14.60732534327519</v>
+        <v>9.163879279112624</v>
       </c>
       <c r="T22" t="n">
         <v>16.40659553579086</v>
@@ -2397,7 +2397,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
@@ -2406,13 +2406,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.3523836031955</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.8265509280334</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>136.6348406159812</v>
+        <v>174.9877220957025</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.578376990908833</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>14.60732534327519</v>
+        <v>9.163879279112624</v>
       </c>
       <c r="T25" t="n">
         <v>16.40659553579086</v>
@@ -2539,7 +2539,7 @@
         <v>74.57845411414431</v>
       </c>
       <c r="X25" t="n">
-        <v>14.62623715903803</v>
+        <v>23.64806021410938</v>
       </c>
       <c r="Y25" t="n">
         <v>7.234551094496993</v>
@@ -2573,7 +2573,7 @@
         <v>177.3686939862516</v>
       </c>
       <c r="I26" t="n">
-        <v>38.36692088852195</v>
+        <v>38.36692088852197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>42.39439964216471</v>
+        <v>42.39439964216474</v>
       </c>
       <c r="T26" t="n">
-        <v>63.44963206565601</v>
+        <v>63.44963206565604</v>
       </c>
       <c r="U26" t="n">
-        <v>92.88552126056808</v>
+        <v>92.88552126056811</v>
       </c>
       <c r="V26" t="n">
         <v>169.9581658092616</v>
@@ -2621,7 +2621,7 @@
         <v>212.2865434179116</v>
       </c>
       <c r="Y26" t="n">
-        <v>228.112016037978</v>
+        <v>228.1120160379781</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>6.797069897087084</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>104.1855624847739</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -2646,7 +2646,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.9082646657518</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S27" t="n">
-        <v>8.251495214775634</v>
+        <v>8.251495214775662</v>
       </c>
       <c r="T27" t="n">
-        <v>39.34416500813381</v>
+        <v>39.34416500813384</v>
       </c>
       <c r="U27" t="n">
-        <v>89.0391803930705</v>
+        <v>66.07455914741121</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.50863577742604</v>
+        <v>21.50863577742606</v>
       </c>
       <c r="C28" t="n">
-        <v>8.761497217944566</v>
+        <v>8.761497217944594</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.21816673798005</v>
+        <v>9.218166737980079</v>
       </c>
       <c r="H28" t="n">
-        <v>2.202230692612726</v>
+        <v>2.202230692612754</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.48310464295891</v>
+        <v>10.48310464295894</v>
       </c>
       <c r="S28" t="n">
-        <v>62.10294633912608</v>
+        <v>62.10294633912611</v>
       </c>
       <c r="T28" t="n">
-        <v>69.34566259580431</v>
+        <v>69.34566259580434</v>
       </c>
       <c r="U28" t="n">
         <v>127.4719583244135</v>
       </c>
       <c r="V28" t="n">
-        <v>94.36129535368138</v>
+        <v>94.36129535368141</v>
       </c>
       <c r="W28" t="n">
         <v>127.5175211741578</v>
       </c>
       <c r="X28" t="n">
-        <v>67.56530421905148</v>
+        <v>67.56530421905151</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.17361815451045</v>
+        <v>60.17361815451048</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>225.1413542781372</v>
+        <v>225.1413542781373</v>
       </c>
       <c r="C29" t="n">
-        <v>208.4100399656848</v>
+        <v>208.4100399656849</v>
       </c>
       <c r="D29" t="n">
-        <v>198.0296770413405</v>
+        <v>198.0296770413406</v>
       </c>
       <c r="E29" t="n">
-        <v>224.5429800420296</v>
+        <v>224.5429800420297</v>
       </c>
       <c r="F29" t="n">
-        <v>248.718807767283</v>
+        <v>248.7188077672831</v>
       </c>
       <c r="G29" t="n">
-        <v>256.064877156591</v>
+        <v>256.0648771565911</v>
       </c>
       <c r="H29" t="n">
-        <v>177.3686939862515</v>
+        <v>177.3686939862516</v>
       </c>
       <c r="I29" t="n">
-        <v>38.36692088852185</v>
+        <v>38.36692088852197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>42.39439964216463</v>
+        <v>42.39439964216474</v>
       </c>
       <c r="T29" t="n">
-        <v>63.44963206565593</v>
+        <v>63.44963206565604</v>
       </c>
       <c r="U29" t="n">
-        <v>92.885521260568</v>
+        <v>92.88552126056811</v>
       </c>
       <c r="V29" t="n">
-        <v>169.9581658092615</v>
+        <v>169.9581658092616</v>
       </c>
       <c r="W29" t="n">
-        <v>191.9550612872967</v>
+        <v>191.9550612872968</v>
       </c>
       <c r="X29" t="n">
-        <v>212.2865434179115</v>
+        <v>212.2865434179116</v>
       </c>
       <c r="Y29" t="n">
-        <v>228.112016037978</v>
+        <v>228.1120160379781</v>
       </c>
     </row>
     <row r="30">
@@ -2874,16 +2874,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>86.57511684898191</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.9082646657518</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S30" t="n">
-        <v>8.251495214775549</v>
+        <v>166.8265509280334</v>
       </c>
       <c r="T30" t="n">
-        <v>39.34416500813373</v>
+        <v>197.9192207213916</v>
       </c>
       <c r="U30" t="n">
-        <v>89.03918039307095</v>
+        <v>66.07455914741121</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>91.4142910367423</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.50863577742595</v>
+        <v>21.50863577742606</v>
       </c>
       <c r="C31" t="n">
-        <v>8.761497217944481</v>
+        <v>8.761497217944594</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>9.218166737979965</v>
+        <v>9.218166737980079</v>
       </c>
       <c r="H31" t="n">
-        <v>2.202230692612641</v>
+        <v>2.202230692612754</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.48310464295882</v>
+        <v>10.48310464295894</v>
       </c>
       <c r="S31" t="n">
-        <v>62.10294633912599</v>
+        <v>62.10294633912611</v>
       </c>
       <c r="T31" t="n">
-        <v>69.34566259580423</v>
+        <v>69.34566259580434</v>
       </c>
       <c r="U31" t="n">
-        <v>127.4719583244134</v>
+        <v>127.4719583244135</v>
       </c>
       <c r="V31" t="n">
-        <v>94.3612953536813</v>
+        <v>94.36129535368141</v>
       </c>
       <c r="W31" t="n">
-        <v>127.5175211741577</v>
+        <v>127.5175211741578</v>
       </c>
       <c r="X31" t="n">
-        <v>67.5653042190514</v>
+        <v>67.56530421905151</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.17361815451036</v>
+        <v>60.17361815451048</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.1413542781372</v>
+        <v>225.1413542781373</v>
       </c>
       <c r="C32" t="n">
-        <v>208.4100399656848</v>
+        <v>208.4100399656849</v>
       </c>
       <c r="D32" t="n">
-        <v>198.0296770413406</v>
+        <v>198.0296770413407</v>
       </c>
       <c r="E32" t="n">
         <v>224.5429800420297</v>
       </c>
       <c r="F32" t="n">
-        <v>248.718807767283</v>
+        <v>248.7188077672831</v>
       </c>
       <c r="G32" t="n">
-        <v>256.064877156591</v>
+        <v>256.0648771565911</v>
       </c>
       <c r="H32" t="n">
-        <v>177.3686939862515</v>
+        <v>177.3686939862517</v>
       </c>
       <c r="I32" t="n">
-        <v>38.36692088852192</v>
+        <v>38.366920888522</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>42.3943996421647</v>
+        <v>42.39439964216477</v>
       </c>
       <c r="T32" t="n">
-        <v>63.44963206565598</v>
+        <v>63.44963206565607</v>
       </c>
       <c r="U32" t="n">
-        <v>92.88552126056805</v>
+        <v>92.88552126056814</v>
       </c>
       <c r="V32" t="n">
-        <v>169.9581658092615</v>
+        <v>169.9581658092616</v>
       </c>
       <c r="W32" t="n">
-        <v>191.9550612872968</v>
+        <v>191.9550612872969</v>
       </c>
       <c r="X32" t="n">
-        <v>212.2865434179116</v>
+        <v>212.2865434179117</v>
       </c>
       <c r="Y32" t="n">
-        <v>228.112016037978</v>
+        <v>228.1120160379781</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3114,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>31.56058390371908</v>
       </c>
       <c r="F33" t="n">
-        <v>7.895797615950739</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.9082646657518</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>82.54598871358354</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S33" t="n">
-        <v>8.251495214775606</v>
+        <v>166.8265509280334</v>
       </c>
       <c r="T33" t="n">
-        <v>39.34416500813379</v>
+        <v>39.34416500813387</v>
       </c>
       <c r="U33" t="n">
         <v>224.6496148606689</v>
@@ -3168,13 +3168,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>91.41429103674233</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>45.88657389522055</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>45.09609570532831</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.50863577742601</v>
+        <v>21.50863577742609</v>
       </c>
       <c r="C34" t="n">
-        <v>8.761497217944537</v>
+        <v>8.761497217944623</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.218166737980022</v>
+        <v>9.218166737980107</v>
       </c>
       <c r="H34" t="n">
-        <v>2.202230692612698</v>
+        <v>2.202230692612783</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.48310464295888</v>
+        <v>10.48310464295897</v>
       </c>
       <c r="S34" t="n">
-        <v>62.10294633912605</v>
+        <v>62.10294633912613</v>
       </c>
       <c r="T34" t="n">
-        <v>69.34566259580428</v>
+        <v>69.34566259580437</v>
       </c>
       <c r="U34" t="n">
-        <v>127.4719583244135</v>
+        <v>127.4719583244136</v>
       </c>
       <c r="V34" t="n">
-        <v>94.36129535368136</v>
+        <v>94.36129535368144</v>
       </c>
       <c r="W34" t="n">
-        <v>127.5175211741577</v>
+        <v>127.5175211741578</v>
       </c>
       <c r="X34" t="n">
-        <v>67.56530421905146</v>
+        <v>67.56530421905154</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.17361815451042</v>
+        <v>60.17361815451051</v>
       </c>
     </row>
     <row r="35">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.3523836031955</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>82.54598871358354</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.8265509280334</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>99.27257378256674</v>
       </c>
       <c r="U36" t="n">
-        <v>136.6348406159798</v>
+        <v>224.6496148606689</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>22.29416930533299</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>174.1018482570729</v>
+        <v>174.1018482570728</v>
       </c>
       <c r="C38" t="n">
-        <v>157.3705339446205</v>
+        <v>157.3705339446204</v>
       </c>
       <c r="D38" t="n">
-        <v>146.9901710202763</v>
+        <v>146.9901710202762</v>
       </c>
       <c r="E38" t="n">
         <v>173.5034740209653</v>
       </c>
       <c r="F38" t="n">
-        <v>197.6793017462187</v>
+        <v>197.6793017462186</v>
       </c>
       <c r="G38" t="n">
         <v>205.0253711355267</v>
       </c>
       <c r="H38" t="n">
-        <v>126.3291879651872</v>
+        <v>126.3291879651871</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>12.41012604459164</v>
+        <v>12.41012604459158</v>
       </c>
       <c r="U38" t="n">
-        <v>41.84601523950371</v>
+        <v>41.84601523950366</v>
       </c>
       <c r="V38" t="n">
-        <v>118.9186597881972</v>
+        <v>118.9186597881971</v>
       </c>
       <c r="W38" t="n">
         <v>140.9155552662324</v>
@@ -3569,7 +3569,7 @@
         <v>161.2470373968472</v>
       </c>
       <c r="Y38" t="n">
-        <v>177.0725100169137</v>
+        <v>177.0725100169136</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3591,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.9082646657518</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.3523836031955</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>82.54598871358354</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>136.6348406159798</v>
+        <v>224.6496148606689</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>94.57752383177115</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>11.06344031806171</v>
+        <v>11.06344031806166</v>
       </c>
       <c r="T40" t="n">
-        <v>18.30615657473994</v>
+        <v>18.30615657473989</v>
       </c>
       <c r="U40" t="n">
-        <v>76.43245230334915</v>
+        <v>76.43245230334909</v>
       </c>
       <c r="V40" t="n">
-        <v>43.32178933261702</v>
+        <v>43.32178933261696</v>
       </c>
       <c r="W40" t="n">
-        <v>76.47801515309339</v>
+        <v>76.47801515309334</v>
       </c>
       <c r="X40" t="n">
-        <v>16.52579819798711</v>
+        <v>16.52579819798706</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.134112133446081</v>
+        <v>9.134112133446024</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174.101848257073</v>
+        <v>174.1018482570729</v>
       </c>
       <c r="C41" t="n">
         <v>157.3705339446205</v>
@@ -3746,16 +3746,16 @@
         <v>146.9901710202763</v>
       </c>
       <c r="E41" t="n">
-        <v>173.5034740209654</v>
+        <v>173.5034740209653</v>
       </c>
       <c r="F41" t="n">
-        <v>197.6793017462188</v>
+        <v>197.6793017462187</v>
       </c>
       <c r="G41" t="n">
-        <v>205.0253711355268</v>
+        <v>205.0253711355267</v>
       </c>
       <c r="H41" t="n">
-        <v>126.3291879651873</v>
+        <v>126.3291879651872</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>12.4101260445917</v>
+        <v>12.41012604459166</v>
       </c>
       <c r="U41" t="n">
-        <v>41.84601523950377</v>
+        <v>41.84601523950374</v>
       </c>
       <c r="V41" t="n">
-        <v>118.9186597881973</v>
+        <v>118.9186597881972</v>
       </c>
       <c r="W41" t="n">
         <v>140.9155552662325</v>
@@ -3819,25 +3819,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.9082646657518</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>82.54598871358354</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>78.31227959146568</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.9192207213916</v>
       </c>
       <c r="U42" t="n">
-        <v>136.6348406159798</v>
+        <v>224.6496148606689</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>22.29416930533301</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>11.06344031806177</v>
+        <v>11.06344031806174</v>
       </c>
       <c r="T43" t="n">
-        <v>18.30615657474</v>
+        <v>18.30615657473997</v>
       </c>
       <c r="U43" t="n">
-        <v>76.43245230334921</v>
+        <v>76.43245230334918</v>
       </c>
       <c r="V43" t="n">
-        <v>43.32178933261707</v>
+        <v>43.32178933261704</v>
       </c>
       <c r="W43" t="n">
-        <v>76.47801515309345</v>
+        <v>76.47801515309342</v>
       </c>
       <c r="X43" t="n">
-        <v>16.52579819798717</v>
+        <v>16.52579819798714</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.134112133446138</v>
+        <v>9.134112133446109</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>174.101848257073</v>
+        <v>174.1018482570729</v>
       </c>
       <c r="C44" t="n">
         <v>157.3705339446205</v>
@@ -3983,16 +3983,16 @@
         <v>146.9901710202763</v>
       </c>
       <c r="E44" t="n">
-        <v>173.5034740209654</v>
+        <v>173.5034740209653</v>
       </c>
       <c r="F44" t="n">
-        <v>197.6793017462188</v>
+        <v>197.6793017462187</v>
       </c>
       <c r="G44" t="n">
-        <v>205.0253711355268</v>
+        <v>205.0253711355267</v>
       </c>
       <c r="H44" t="n">
-        <v>126.3291879651873</v>
+        <v>126.3291879651872</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>12.4101260445917</v>
+        <v>12.41012604459167</v>
       </c>
       <c r="U44" t="n">
-        <v>41.84601523950377</v>
+        <v>41.84601523950374</v>
       </c>
       <c r="V44" t="n">
-        <v>118.9186597881973</v>
+        <v>118.9186597881972</v>
       </c>
       <c r="W44" t="n">
         <v>140.9155552662325</v>
@@ -4059,22 +4059,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>55.49145783886026</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.9082646657518</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.3523836031955</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>82.54598871358354</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.8265509280334</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.9192207213916</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6496148606689</v>
+        <v>15.03505312634684</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>22.29416930533301</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>239.2253405251237</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>11.06344031806177</v>
+        <v>11.06344031806174</v>
       </c>
       <c r="T46" t="n">
-        <v>18.30615657474</v>
+        <v>18.30615657473997</v>
       </c>
       <c r="U46" t="n">
-        <v>76.43245230334921</v>
+        <v>76.43245230334918</v>
       </c>
       <c r="V46" t="n">
-        <v>43.32178933261707</v>
+        <v>43.32178933261704</v>
       </c>
       <c r="W46" t="n">
-        <v>76.47801515309345</v>
+        <v>76.47801515309342</v>
       </c>
       <c r="X46" t="n">
-        <v>16.52579819798717</v>
+        <v>16.52579819798714</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.134112133446138</v>
+        <v>9.134112133446109</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D2" t="n">
-        <v>1097.13522936641</v>
+        <v>583.4189451567685</v>
       </c>
       <c r="E2" t="n">
-        <v>1061.06897431207</v>
+        <v>583.4189451567685</v>
       </c>
       <c r="F2" t="n">
-        <v>784.014623461966</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G2" t="n">
-        <v>506.9602726118625</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I2" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4370,10 +4370,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>360.3191967224772</v>
+        <v>608.8394371532443</v>
       </c>
       <c r="C3" t="n">
-        <v>360.3191967224772</v>
+        <v>436.0863220750615</v>
       </c>
       <c r="D3" t="n">
-        <v>212.730890081421</v>
+        <v>436.0863220750615</v>
       </c>
       <c r="E3" t="n">
-        <v>55.12136108427572</v>
+        <v>278.4767930779162</v>
       </c>
       <c r="F3" t="n">
-        <v>55.12136108427572</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G3" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H3" t="n">
         <v>21.9427045873282</v>
@@ -4407,52 +4407,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>26.22704853682407</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>274.3046529787421</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>545.8456222469285</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N3" t="n">
-        <v>817.386591515115</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>801.0973387912989</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>801.0973387912989</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>566.8460953168997</v>
+        <v>982.4088868692272</v>
       </c>
       <c r="W3" t="n">
-        <v>566.8460953168997</v>
+        <v>982.4088868692272</v>
       </c>
       <c r="X3" t="n">
-        <v>360.3191967224772</v>
+        <v>775.8819882748047</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.3191967224772</v>
+        <v>775.8819882748047</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>928.1084082237813</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N4" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O4" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.6719412882472</v>
+        <v>321.3694078458881</v>
       </c>
       <c r="C5" t="n">
-        <v>266.6719412882472</v>
+        <v>321.3694078458881</v>
       </c>
       <c r="D5" t="n">
-        <v>252.2782741702153</v>
+        <v>44.31505699578452</v>
       </c>
       <c r="E5" t="n">
-        <v>252.2782741702153</v>
+        <v>44.31505699578452</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9107353009821</v>
+        <v>36.94751812655136</v>
       </c>
       <c r="G5" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4580,7 +4580,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4589,28 +4589,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>520.6898842948577</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U5" t="n">
-        <v>266.6719412882472</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V5" t="n">
-        <v>266.6719412882472</v>
+        <v>617.899996262405</v>
       </c>
       <c r="W5" t="n">
-        <v>266.6719412882472</v>
+        <v>617.899996262405</v>
       </c>
       <c r="X5" t="n">
-        <v>266.6719412882472</v>
+        <v>598.4237586959916</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.6719412882472</v>
+        <v>598.4237586959916</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3200212191178</v>
+        <v>523.1793837834889</v>
       </c>
       <c r="C6" t="n">
-        <v>109.3200212191178</v>
+        <v>523.1793837834889</v>
       </c>
       <c r="D6" t="n">
-        <v>109.3200212191178</v>
+        <v>375.5910771424328</v>
       </c>
       <c r="E6" t="n">
-        <v>109.3200212191178</v>
+        <v>217.9815481452875</v>
       </c>
       <c r="F6" t="n">
-        <v>109.3200212191178</v>
+        <v>73.02575816190432</v>
       </c>
       <c r="G6" t="n">
-        <v>109.3200212191178</v>
+        <v>73.02575816190432</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
@@ -4650,13 +4650,13 @@
         <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>274.3046529787421</v>
       </c>
       <c r="M6" t="n">
-        <v>416.655578933882</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377944</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O6" t="n">
         <v>817.386591515115</v>
@@ -4674,22 +4674,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>1029.539096436627</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U6" t="n">
-        <v>802.6126549546061</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V6" t="n">
-        <v>568.3614114802069</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="W6" t="n">
-        <v>315.8469198135402</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="X6" t="n">
-        <v>109.3200212191178</v>
+        <v>690.2219349050494</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.3200212191178</v>
+        <v>690.2219349050494</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>931.338545605021</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>931.338545605021</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="D7" t="n">
-        <v>931.338545605021</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="E7" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>931.338545605021</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N7" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O7" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P7" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>931.338545605021</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>931.338545605021</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>931.338545605021</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>931.338545605021</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.3869758704224</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="C8" t="n">
-        <v>806.3869758704224</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D8" t="n">
-        <v>529.3326250203188</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="E8" t="n">
-        <v>529.3326250203188</v>
+        <v>321.3694078458881</v>
       </c>
       <c r="F8" t="n">
-        <v>521.9650861510856</v>
+        <v>314.0018689766549</v>
       </c>
       <c r="G8" t="n">
-        <v>506.9602726118625</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4826,28 +4826,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>806.3869758704224</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>806.3869758704224</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U8" t="n">
-        <v>806.3869758704224</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V8" t="n">
-        <v>806.3869758704224</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W8" t="n">
-        <v>806.3869758704224</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="X8" t="n">
-        <v>806.3869758704224</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="Y8" t="n">
-        <v>806.3869758704224</v>
+        <v>871.9179392690156</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.3200212191178</v>
+        <v>378.5078487234679</v>
       </c>
       <c r="C9" t="n">
-        <v>109.3200212191178</v>
+        <v>378.5078487234679</v>
       </c>
       <c r="D9" t="n">
-        <v>109.3200212191178</v>
+        <v>378.5078487234679</v>
       </c>
       <c r="E9" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F9" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G9" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
         <v>109.3200212191178</v>
@@ -4887,46 +4887,46 @@
         <v>161.1846636454791</v>
       </c>
       <c r="L9" t="n">
-        <v>286.1736718527163</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M9" t="n">
-        <v>557.7146411209028</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N9" t="n">
-        <v>829.2556103890893</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1045.413969456238</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169106</v>
+        <v>1045.413969456238</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348891</v>
+        <v>818.4875279742166</v>
       </c>
       <c r="V9" t="n">
-        <v>169.25135696049</v>
+        <v>584.2362844998174</v>
       </c>
       <c r="W9" t="n">
-        <v>109.3200212191178</v>
+        <v>584.2362844998174</v>
       </c>
       <c r="X9" t="n">
-        <v>109.3200212191178</v>
+        <v>584.2362844998174</v>
       </c>
       <c r="Y9" t="n">
-        <v>109.3200212191178</v>
+        <v>378.5078487234679</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="H10" t="n">
         <v>21.9427045873282</v>
@@ -4993,19 +4993,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1201.003296599365</v>
+        <v>591.1810803962476</v>
       </c>
       <c r="C11" t="n">
-        <v>1201.003296599365</v>
+        <v>338.8439849557242</v>
       </c>
       <c r="D11" t="n">
-        <v>1201.003296599365</v>
+        <v>338.8439849557242</v>
       </c>
       <c r="E11" t="n">
-        <v>932.370302091826</v>
+        <v>338.8439849557242</v>
       </c>
       <c r="F11" t="n">
-        <v>639.3172795789811</v>
+        <v>338.8439849557242</v>
       </c>
       <c r="G11" t="n">
         <v>338.8439849557242</v>
@@ -5039,28 +5039,28 @@
         <v>37.28541534396649</v>
       </c>
       <c r="J11" t="n">
-        <v>54.68403733400102</v>
+        <v>170.6836948148972</v>
       </c>
       <c r="K11" t="n">
-        <v>319.0363117820793</v>
+        <v>364.1325803211179</v>
       </c>
       <c r="L11" t="n">
-        <v>671.0495869696531</v>
+        <v>600.1461980277954</v>
       </c>
       <c r="M11" t="n">
-        <v>948.8725054820043</v>
+        <v>993.9687740210429</v>
       </c>
       <c r="N11" t="n">
-        <v>1331.673371759431</v>
+        <v>1260.769982817573</v>
       </c>
       <c r="O11" t="n">
-        <v>1537.477836271644</v>
+        <v>1582.574104810683</v>
       </c>
       <c r="P11" t="n">
-        <v>1721.284660649285</v>
+        <v>1721.284660649286</v>
       </c>
       <c r="Q11" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="R11" t="n">
         <v>1852.973315334385</v>
@@ -5069,22 +5069,22 @@
         <v>1852.973315334385</v>
       </c>
       <c r="T11" t="n">
-        <v>1747.060874338335</v>
+        <v>1852.973315334385</v>
       </c>
       <c r="U11" t="n">
-        <v>1742.478790899346</v>
+        <v>1717.327652929332</v>
       </c>
       <c r="V11" t="n">
-        <v>1742.478790899346</v>
+        <v>1624.6252350458</v>
       </c>
       <c r="W11" t="n">
-        <v>1742.478790899346</v>
+        <v>1388.909330189507</v>
       </c>
       <c r="X11" t="n">
-        <v>1742.478790899346</v>
+        <v>1132.656574696229</v>
       </c>
       <c r="Y11" t="n">
-        <v>1470.240709527214</v>
+        <v>860.4184933240966</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>316.1555826142641</v>
+        <v>794.632873286167</v>
       </c>
       <c r="C12" t="n">
-        <v>261.7573879328737</v>
+        <v>621.8797582079842</v>
       </c>
       <c r="D12" t="n">
-        <v>232.52400168861</v>
+        <v>474.2914515669281</v>
       </c>
       <c r="E12" t="n">
-        <v>193.2693930882571</v>
+        <v>395.0041000644268</v>
       </c>
       <c r="F12" t="n">
-        <v>166.6685235016663</v>
+        <v>250.0483100810437</v>
       </c>
       <c r="G12" t="n">
-        <v>147.7423684785074</v>
+        <v>231.1221550578847</v>
       </c>
       <c r="H12" t="n">
-        <v>37.28541534396649</v>
+        <v>120.6652019233438</v>
       </c>
       <c r="I12" t="n">
         <v>37.28541534396649</v>
       </c>
       <c r="J12" t="n">
-        <v>55.42996059061943</v>
+        <v>55.42996059061927</v>
       </c>
       <c r="K12" t="n">
-        <v>213.0474916700777</v>
+        <v>213.0474916700775</v>
       </c>
       <c r="L12" t="n">
-        <v>485.8333203810785</v>
+        <v>485.8333203810783</v>
       </c>
       <c r="M12" t="n">
-        <v>856.9617100852211</v>
+        <v>856.9617100852213</v>
       </c>
       <c r="N12" t="n">
         <v>1253.311495941275</v>
@@ -5139,31 +5139,31 @@
         <v>1768.566628893624</v>
       </c>
       <c r="Q12" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="R12" t="n">
-        <v>1775.828066811419</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="S12" t="n">
-        <v>1607.316399207345</v>
+        <v>1695.759099594251</v>
       </c>
       <c r="T12" t="n">
-        <v>1490.783085740435</v>
+        <v>1614.19561522196</v>
       </c>
       <c r="U12" t="n">
-        <v>1263.86428285087</v>
+        <v>1505.631732729188</v>
       </c>
       <c r="V12" t="n">
-        <v>1029.613039376471</v>
+        <v>1389.735409651581</v>
       </c>
       <c r="W12" t="n">
-        <v>777.0985477098042</v>
+        <v>1137.220917984915</v>
       </c>
       <c r="X12" t="n">
-        <v>570.5716491153817</v>
+        <v>930.6940193904921</v>
       </c>
       <c r="Y12" t="n">
-        <v>364.8432133390322</v>
+        <v>843.320504010935</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>308.7068491784798</v>
+        <v>279.4263944138537</v>
       </c>
       <c r="C13" t="n">
-        <v>258.0349484326436</v>
+        <v>228.7544936680174</v>
       </c>
       <c r="D13" t="n">
-        <v>225.8791955824468</v>
+        <v>196.5987408178206</v>
       </c>
       <c r="E13" t="n">
-        <v>195.7748996426743</v>
+        <v>166.4944448780481</v>
       </c>
       <c r="F13" t="n">
-        <v>166.494444878048</v>
+        <v>166.4944448780481</v>
       </c>
       <c r="G13" t="n">
         <v>115.3612617887416</v>
@@ -5197,19 +5197,19 @@
         <v>37.28541534396649</v>
       </c>
       <c r="J13" t="n">
-        <v>72.07959530192643</v>
+        <v>72.07959530192642</v>
       </c>
       <c r="K13" t="n">
         <v>184.5366595618229</v>
       </c>
       <c r="L13" t="n">
-        <v>351.8066325284338</v>
+        <v>351.806632528434</v>
       </c>
       <c r="M13" t="n">
         <v>532.4565486827059</v>
       </c>
       <c r="N13" t="n">
-        <v>716.7104880809989</v>
+        <v>716.7104880809987</v>
       </c>
       <c r="O13" t="n">
         <v>880.4174256328371</v>
@@ -5224,25 +5224,25 @@
         <v>1006.630772698268</v>
       </c>
       <c r="S13" t="n">
-        <v>902.0786203148743</v>
+        <v>1006.630772698268</v>
       </c>
       <c r="T13" t="n">
-        <v>790.2105929247354</v>
+        <v>894.7627453081286</v>
       </c>
       <c r="U13" t="n">
-        <v>658.5162141164022</v>
+        <v>863.4110381320291</v>
       </c>
       <c r="V13" t="n">
-        <v>521.3798708092157</v>
+        <v>726.2746948248425</v>
       </c>
       <c r="W13" t="n">
-        <v>521.3798708092157</v>
+        <v>555.6472143252556</v>
       </c>
       <c r="X13" t="n">
-        <v>411.3101852137765</v>
+        <v>445.5775287298164</v>
       </c>
       <c r="Y13" t="n">
-        <v>308.7068491784798</v>
+        <v>342.9741926945196</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1005.07321895808</v>
+        <v>549.0671222395658</v>
       </c>
       <c r="C14" t="n">
-        <v>1005.07321895808</v>
+        <v>549.0671222395658</v>
       </c>
       <c r="D14" t="n">
-        <v>763.2213385926523</v>
+        <v>549.0671222395658</v>
       </c>
       <c r="E14" t="n">
-        <v>711.3881015800234</v>
+        <v>330.3384378568114</v>
       </c>
       <c r="F14" t="n">
-        <v>418.3350790671785</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="G14" t="n">
-        <v>117.8617844439214</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="H14" t="n">
-        <v>117.8617844439214</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="I14" t="n">
         <v>37.28541534396649</v>
@@ -5279,49 +5279,49 @@
         <v>170.6836948148972</v>
       </c>
       <c r="K14" t="n">
-        <v>435.0359692629754</v>
+        <v>435.0359692629755</v>
       </c>
       <c r="L14" t="n">
-        <v>787.0492444505492</v>
+        <v>716.1458555086917</v>
       </c>
       <c r="M14" t="n">
-        <v>1064.8721629629</v>
+        <v>993.9687740210429</v>
       </c>
       <c r="N14" t="n">
-        <v>1331.67337175943</v>
+        <v>1376.769640298469</v>
       </c>
       <c r="O14" t="n">
-        <v>1537.477836271644</v>
+        <v>1582.574104810683</v>
       </c>
       <c r="P14" t="n">
         <v>1721.284660649286</v>
       </c>
       <c r="Q14" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="R14" t="n">
-        <v>1852.973315334384</v>
+        <v>1852.973315334385</v>
       </c>
       <c r="S14" t="n">
-        <v>1852.973315334384</v>
+        <v>1768.328785877215</v>
       </c>
       <c r="T14" t="n">
-        <v>1747.060874338335</v>
+        <v>1662.416344881165</v>
       </c>
       <c r="U14" t="n">
-        <v>1747.060874338335</v>
+        <v>1526.770682476113</v>
       </c>
       <c r="V14" t="n">
-        <v>1533.564055823491</v>
+        <v>1313.273863961269</v>
       </c>
       <c r="W14" t="n">
-        <v>1533.564055823491</v>
+        <v>1077.557959104976</v>
       </c>
       <c r="X14" t="n">
-        <v>1277.311300330213</v>
+        <v>821.3052036116985</v>
       </c>
       <c r="Y14" t="n">
-        <v>1005.07321895808</v>
+        <v>549.0671222395658</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>794.6328732861662</v>
+        <v>407.4333364558931</v>
       </c>
       <c r="C15" t="n">
-        <v>621.8797582079833</v>
+        <v>353.0351417745027</v>
       </c>
       <c r="D15" t="n">
-        <v>474.2914515669272</v>
+        <v>205.4468351334465</v>
       </c>
       <c r="E15" t="n">
-        <v>316.6819225697818</v>
+        <v>166.1922265330936</v>
       </c>
       <c r="F15" t="n">
-        <v>171.7261325863987</v>
+        <v>139.5913569465028</v>
       </c>
       <c r="G15" t="n">
         <v>120.6652019233438</v>
@@ -5358,16 +5358,16 @@
         <v>55.42996059061927</v>
       </c>
       <c r="K15" t="n">
-        <v>213.0474916700777</v>
+        <v>213.0474916700775</v>
       </c>
       <c r="L15" t="n">
-        <v>485.8333203810785</v>
+        <v>485.8333203810783</v>
       </c>
       <c r="M15" t="n">
-        <v>856.9617100852211</v>
+        <v>856.9617100852208</v>
       </c>
       <c r="N15" t="n">
-        <v>1253.311495941275</v>
+        <v>1253.311495941274</v>
       </c>
       <c r="O15" t="n">
         <v>1548.266098090496</v>
@@ -5376,31 +5376,31 @@
         <v>1768.566628893624</v>
       </c>
       <c r="Q15" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="R15" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="S15" t="n">
-        <v>1814.114019991043</v>
+        <v>1781.979244351146</v>
       </c>
       <c r="T15" t="n">
-        <v>1732.550535618753</v>
+        <v>1582.060839582064</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.98665312598</v>
+        <v>1355.142036692499</v>
       </c>
       <c r="V15" t="n">
-        <v>1508.090330048373</v>
+        <v>1239.245713614892</v>
       </c>
       <c r="W15" t="n">
-        <v>1373.930758778499</v>
+        <v>986.7312219482257</v>
       </c>
       <c r="X15" t="n">
-        <v>1167.403860184076</v>
+        <v>780.2043233538031</v>
       </c>
       <c r="Y15" t="n">
-        <v>961.6754244077266</v>
+        <v>574.4758875774536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>308.7068491784804</v>
+        <v>181.8328165793702</v>
       </c>
       <c r="C16" t="n">
-        <v>258.0349484326441</v>
+        <v>181.8328165793702</v>
       </c>
       <c r="D16" t="n">
-        <v>225.8791955824472</v>
+        <v>181.8328165793702</v>
       </c>
       <c r="E16" t="n">
-        <v>195.7748996426747</v>
+        <v>151.7285206395977</v>
       </c>
       <c r="F16" t="n">
-        <v>166.4944448780483</v>
+        <v>122.4480658749713</v>
       </c>
       <c r="G16" t="n">
-        <v>115.3612617887418</v>
+        <v>71.31488278566486</v>
       </c>
       <c r="H16" t="n">
-        <v>71.31488278566488</v>
+        <v>71.31488278566486</v>
       </c>
       <c r="I16" t="n">
         <v>37.28541534396649</v>
       </c>
       <c r="J16" t="n">
-        <v>72.07959530192636</v>
+        <v>72.07959530192639</v>
       </c>
       <c r="K16" t="n">
-        <v>184.5366595618227</v>
+        <v>184.5366595618228</v>
       </c>
       <c r="L16" t="n">
         <v>351.8066325284336</v>
       </c>
       <c r="M16" t="n">
-        <v>532.4565486827055</v>
+        <v>532.4565486827056</v>
       </c>
       <c r="N16" t="n">
-        <v>716.7104880809983</v>
+        <v>716.7104880809984</v>
       </c>
       <c r="O16" t="n">
-        <v>880.4174256328365</v>
+        <v>880.4174256328366</v>
       </c>
       <c r="P16" t="n">
         <v>1014.016421507437</v>
@@ -5461,25 +5461,25 @@
         <v>1006.630772698267</v>
       </c>
       <c r="S16" t="n">
-        <v>902.0786203148734</v>
+        <v>1006.630772698267</v>
       </c>
       <c r="T16" t="n">
-        <v>790.2105929247342</v>
+        <v>894.7627453081279</v>
       </c>
       <c r="U16" t="n">
-        <v>619.6291355056969</v>
+        <v>724.1812878890906</v>
       </c>
       <c r="V16" t="n">
-        <v>482.4927921985102</v>
+        <v>587.044944581904</v>
       </c>
       <c r="W16" t="n">
-        <v>482.3243330545858</v>
+        <v>458.0536364907722</v>
       </c>
       <c r="X16" t="n">
-        <v>372.2546474591465</v>
+        <v>347.983950895333</v>
       </c>
       <c r="Y16" t="n">
-        <v>372.2546474591465</v>
+        <v>245.3806148600362</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1042.841651302653</v>
       </c>
       <c r="C17" t="n">
-        <v>885.8002645292474</v>
+        <v>885.8002645292477</v>
       </c>
       <c r="D17" t="n">
-        <v>739.2440928309372</v>
+        <v>739.2440928309375</v>
       </c>
       <c r="E17" t="n">
-        <v>565.9068069905168</v>
+        <v>565.906806990517</v>
       </c>
       <c r="F17" t="n">
-        <v>368.1494931447899</v>
+        <v>368.1494931447901</v>
       </c>
       <c r="G17" t="n">
         <v>162.9719071886515</v>
@@ -5510,49 +5510,49 @@
         <v>37.28541534396649</v>
       </c>
       <c r="I17" t="n">
-        <v>51.71184005374309</v>
+        <v>51.7118400537431</v>
       </c>
       <c r="J17" t="n">
-        <v>276.4072174751043</v>
+        <v>278.5094435893162</v>
       </c>
       <c r="K17" t="n">
-        <v>424.7598344422864</v>
+        <v>426.8620605564982</v>
       </c>
       <c r="L17" t="n">
-        <v>660.7734521489639</v>
+        <v>753.5393643854288</v>
       </c>
       <c r="M17" t="n">
-        <v>938.5963706613151</v>
+        <v>1031.36228289778</v>
       </c>
       <c r="N17" t="n">
-        <v>1400.0033855429</v>
+        <v>1492.769297779365</v>
       </c>
       <c r="O17" t="n">
-        <v>1605.807850055114</v>
+        <v>1698.573762291579</v>
       </c>
       <c r="P17" t="n">
-        <v>1744.518405893717</v>
+        <v>1837.284318130182</v>
       </c>
       <c r="Q17" t="n">
-        <v>1771.50485496186</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="R17" t="n">
-        <v>1853.831546454654</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="S17" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="T17" t="n">
-        <v>1853.654034869392</v>
+        <v>1853.654034869393</v>
       </c>
       <c r="U17" t="n">
         <v>1813.304081131459</v>
       </c>
       <c r="V17" t="n">
-        <v>1695.102971283733</v>
+        <v>1695.102971283734</v>
       </c>
       <c r="W17" t="n">
-        <v>1554.682775094558</v>
+        <v>1554.682775094559</v>
       </c>
       <c r="X17" t="n">
         <v>1393.725728268399</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>571.2883436753613</v>
+        <v>595.9836359820551</v>
       </c>
       <c r="C18" t="n">
-        <v>398.5352285971784</v>
+        <v>423.2305209038723</v>
       </c>
       <c r="D18" t="n">
-        <v>250.9469219561223</v>
+        <v>423.2305209038723</v>
       </c>
       <c r="E18" t="n">
-        <v>93.33739295897701</v>
+        <v>265.6209919067269</v>
       </c>
       <c r="F18" t="n">
-        <v>37.28541534396649</v>
+        <v>120.6652019233438</v>
       </c>
       <c r="G18" t="n">
-        <v>37.28541534396649</v>
+        <v>120.6652019233438</v>
       </c>
       <c r="H18" t="n">
-        <v>37.28541534396649</v>
+        <v>120.6652019233438</v>
       </c>
       <c r="I18" t="n">
         <v>37.28541534396649</v>
       </c>
       <c r="J18" t="n">
-        <v>55.42996059061934</v>
+        <v>55.42996059061943</v>
       </c>
       <c r="K18" t="n">
-        <v>213.0474916700776</v>
+        <v>213.0474916700777</v>
       </c>
       <c r="L18" t="n">
         <v>485.8333203810785</v>
       </c>
       <c r="M18" t="n">
-        <v>856.9617100852209</v>
+        <v>856.9617100852211</v>
       </c>
       <c r="N18" t="n">
         <v>1253.311495941275</v>
@@ -5613,31 +5613,31 @@
         <v>1768.566628893624</v>
       </c>
       <c r="Q18" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="R18" t="n">
-        <v>1864.270767198324</v>
+        <v>1864.270767198325</v>
       </c>
       <c r="S18" t="n">
-        <v>1864.270767198324</v>
+        <v>1695.759099594251</v>
       </c>
       <c r="T18" t="n">
-        <v>1864.270767198324</v>
+        <v>1675.315430441108</v>
       </c>
       <c r="U18" t="n">
-        <v>1637.35196430876</v>
+        <v>1662.047256615454</v>
       </c>
       <c r="V18" t="n">
-        <v>1403.100720834361</v>
+        <v>1427.796013141055</v>
       </c>
       <c r="W18" t="n">
-        <v>1150.586229167694</v>
+        <v>1175.281521474388</v>
       </c>
       <c r="X18" t="n">
-        <v>944.0593305732713</v>
+        <v>968.7546228799652</v>
       </c>
       <c r="Y18" t="n">
-        <v>738.3308947969217</v>
+        <v>763.0261871036156</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="C19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="D19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="E19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="F19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="G19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="H19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="I19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="J19" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="K19" t="n">
         <v>37.28541534396649</v>
       </c>
       <c r="L19" t="n">
-        <v>88.55573082968115</v>
+        <v>88.55573082968118</v>
       </c>
       <c r="M19" t="n">
-        <v>153.2059895030569</v>
+        <v>153.205989503057</v>
       </c>
       <c r="N19" t="n">
-        <v>221.4602714204535</v>
+        <v>221.4602714204536</v>
       </c>
       <c r="O19" t="n">
-        <v>269.1675514913956</v>
+        <v>269.1675514913957</v>
       </c>
       <c r="P19" t="n">
-        <v>286.7668898850999</v>
+        <v>286.7668898851</v>
       </c>
       <c r="Q19" t="n">
-        <v>286.7668898850999</v>
+        <v>286.7668898851</v>
       </c>
       <c r="R19" t="n">
-        <v>286.7668898850999</v>
+        <v>286.7668898851</v>
       </c>
       <c r="S19" t="n">
         <v>277.5104461688246</v>
       </c>
       <c r="T19" t="n">
-        <v>255.4396970779626</v>
+        <v>260.9381274458036</v>
       </c>
       <c r="U19" t="n">
-        <v>180.1539483260433</v>
+        <v>185.6523786938843</v>
       </c>
       <c r="V19" t="n">
-        <v>138.3133136859747</v>
+        <v>143.8117440538157</v>
       </c>
       <c r="W19" t="n">
-        <v>62.98154185350575</v>
+        <v>68.47997222134669</v>
       </c>
       <c r="X19" t="n">
-        <v>48.20756492518451</v>
+        <v>53.70599529302545</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.89993755700573</v>
+        <v>46.39836792484667</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>1042.841651302653</v>
       </c>
       <c r="C20" t="n">
-        <v>885.8002645292479</v>
+        <v>885.8002645292477</v>
       </c>
       <c r="D20" t="n">
-        <v>739.2440928309377</v>
+        <v>739.2440928309375</v>
       </c>
       <c r="E20" t="n">
-        <v>565.9068069905172</v>
+        <v>565.906806990517</v>
       </c>
       <c r="F20" t="n">
-        <v>368.1494931447903</v>
+        <v>368.1494931447901</v>
       </c>
       <c r="G20" t="n">
         <v>162.9719071886515</v>
@@ -5747,31 +5747,31 @@
         <v>37.28541534396649</v>
       </c>
       <c r="I20" t="n">
-        <v>51.7118400537431</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="J20" t="n">
-        <v>69.11046204377762</v>
+        <v>54.68403733400102</v>
       </c>
       <c r="K20" t="n">
-        <v>217.4630790109597</v>
+        <v>203.0366543011831</v>
       </c>
       <c r="L20" t="n">
-        <v>453.4766967176372</v>
+        <v>439.0502720078606</v>
       </c>
       <c r="M20" t="n">
-        <v>731.2996152299884</v>
+        <v>796.7309051480879</v>
       </c>
       <c r="N20" t="n">
-        <v>998.1008240265185</v>
+        <v>1063.532113944618</v>
       </c>
       <c r="O20" t="n">
-        <v>1203.905288538732</v>
+        <v>1478.73556000237</v>
       </c>
       <c r="P20" t="n">
-        <v>1535.119424348178</v>
+        <v>1617.446115840973</v>
       </c>
       <c r="Q20" t="n">
-        <v>1771.50485496186</v>
+        <v>1853.831546454654</v>
       </c>
       <c r="R20" t="n">
         <v>1853.831546454654</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>571.2883436753615</v>
+        <v>624.7201163855025</v>
       </c>
       <c r="C21" t="n">
-        <v>398.5352285971787</v>
+        <v>624.7201163855025</v>
       </c>
       <c r="D21" t="n">
-        <v>250.9469219561225</v>
+        <v>477.1318097444463</v>
       </c>
       <c r="E21" t="n">
-        <v>93.33739295897723</v>
+        <v>319.522280747301</v>
       </c>
       <c r="F21" t="n">
-        <v>37.28541534396649</v>
+        <v>174.5664907639178</v>
       </c>
       <c r="G21" t="n">
         <v>37.28541534396649</v>
@@ -5829,16 +5829,16 @@
         <v>37.28541534396649</v>
       </c>
       <c r="J21" t="n">
-        <v>55.42996059061943</v>
+        <v>55.42996059061927</v>
       </c>
       <c r="K21" t="n">
-        <v>213.0474916700777</v>
+        <v>213.0474916700775</v>
       </c>
       <c r="L21" t="n">
-        <v>485.8333203810785</v>
+        <v>485.8333203810787</v>
       </c>
       <c r="M21" t="n">
-        <v>856.9617100852211</v>
+        <v>856.9617100852213</v>
       </c>
       <c r="N21" t="n">
         <v>1253.311495941275</v>
@@ -5853,28 +5853,28 @@
         <v>1864.270767198325</v>
       </c>
       <c r="R21" t="n">
-        <v>1864.270767198325</v>
+        <v>1775.828066811419</v>
       </c>
       <c r="S21" t="n">
-        <v>1864.270767198325</v>
+        <v>1607.316399207345</v>
       </c>
       <c r="T21" t="n">
-        <v>1864.270767198325</v>
+        <v>1407.397994438262</v>
       </c>
       <c r="U21" t="n">
-        <v>1637.35196430876</v>
+        <v>1180.479191548698</v>
       </c>
       <c r="V21" t="n">
-        <v>1403.100720834361</v>
+        <v>1083.761506646592</v>
       </c>
       <c r="W21" t="n">
-        <v>1150.586229167694</v>
+        <v>831.247014979925</v>
       </c>
       <c r="X21" t="n">
-        <v>944.0593305732715</v>
+        <v>624.7201163855025</v>
       </c>
       <c r="Y21" t="n">
-        <v>738.3308947969219</v>
+        <v>624.7201163855025</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.89993755700571</v>
+        <v>46.39836792484667</v>
       </c>
       <c r="C22" t="n">
-        <v>40.89993755700571</v>
+        <v>46.39836792484667</v>
       </c>
       <c r="D22" t="n">
-        <v>40.89993755700571</v>
+        <v>46.39836792484667</v>
       </c>
       <c r="E22" t="n">
-        <v>40.89993755700571</v>
+        <v>46.39836792484667</v>
       </c>
       <c r="F22" t="n">
-        <v>40.89993755700571</v>
+        <v>46.39836792484667</v>
       </c>
       <c r="G22" t="n">
-        <v>40.89993755700571</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="H22" t="n">
-        <v>40.89993755700571</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="I22" t="n">
-        <v>40.89993755700571</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="J22" t="n">
-        <v>40.89993755700571</v>
+        <v>37.28541534396649</v>
       </c>
       <c r="K22" t="n">
         <v>37.28541534396649</v>
@@ -5935,25 +5935,25 @@
         <v>286.7668898851</v>
       </c>
       <c r="S22" t="n">
-        <v>272.0120158009836</v>
+        <v>277.5104461688246</v>
       </c>
       <c r="T22" t="n">
-        <v>255.4396970779626</v>
+        <v>260.9381274458036</v>
       </c>
       <c r="U22" t="n">
-        <v>180.1539483260433</v>
+        <v>185.6523786938843</v>
       </c>
       <c r="V22" t="n">
-        <v>138.3133136859747</v>
+        <v>143.8117440538157</v>
       </c>
       <c r="W22" t="n">
-        <v>62.98154185350574</v>
+        <v>68.47997222134669</v>
       </c>
       <c r="X22" t="n">
-        <v>48.2075649251845</v>
+        <v>53.70599529302545</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.89993755700571</v>
+        <v>46.39836792484667</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>1042.841651302654</v>
       </c>
       <c r="C23" t="n">
-        <v>885.8002645292488</v>
+        <v>885.8002645292481</v>
       </c>
       <c r="D23" t="n">
-        <v>739.2440928309386</v>
+        <v>739.2440928309379</v>
       </c>
       <c r="E23" t="n">
-        <v>565.9068069905179</v>
+        <v>565.9068069905175</v>
       </c>
       <c r="F23" t="n">
-        <v>368.149493144791</v>
+        <v>368.1494931447905</v>
       </c>
       <c r="G23" t="n">
         <v>162.9719071886515</v>
@@ -5990,25 +5990,25 @@
         <v>69.11046204377763</v>
       </c>
       <c r="K23" t="n">
-        <v>426.8620605564982</v>
+        <v>217.4630790109597</v>
       </c>
       <c r="L23" t="n">
-        <v>855.3792582340197</v>
+        <v>453.4766967176373</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.202176746371</v>
+        <v>811.524080608572</v>
       </c>
       <c r="N23" t="n">
-        <v>1400.003385542901</v>
+        <v>1272.931095490158</v>
       </c>
       <c r="O23" t="n">
-        <v>1605.807850055115</v>
+        <v>1478.735560002371</v>
       </c>
       <c r="P23" t="n">
-        <v>1744.518405893717</v>
+        <v>1617.446115840974</v>
       </c>
       <c r="Q23" t="n">
-        <v>1771.50485496186</v>
+        <v>1853.831546454655</v>
       </c>
       <c r="R23" t="n">
         <v>1853.831546454655</v>
@@ -6017,16 +6017,16 @@
         <v>1864.270767198325</v>
       </c>
       <c r="T23" t="n">
-        <v>1853.654034869394</v>
+        <v>1853.654034869393</v>
       </c>
       <c r="U23" t="n">
-        <v>1813.30408113146</v>
+        <v>1813.304081131459</v>
       </c>
       <c r="V23" t="n">
-        <v>1695.102971283735</v>
+        <v>1695.102971283734</v>
       </c>
       <c r="W23" t="n">
-        <v>1554.68277509456</v>
+        <v>1554.682775094559</v>
       </c>
       <c r="X23" t="n">
         <v>1393.7257282684</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>660.1921560437339</v>
+        <v>452.9402041167089</v>
       </c>
       <c r="C24" t="n">
-        <v>487.4390409655511</v>
+        <v>452.9402041167089</v>
       </c>
       <c r="D24" t="n">
-        <v>339.850734324495</v>
+        <v>305.3518974756527</v>
       </c>
       <c r="E24" t="n">
-        <v>182.2412053273496</v>
+        <v>147.7423684785074</v>
       </c>
       <c r="F24" t="n">
-        <v>37.28541534396651</v>
+        <v>147.7423684785074</v>
       </c>
       <c r="G24" t="n">
-        <v>37.28541534396651</v>
+        <v>147.7423684785074</v>
       </c>
       <c r="H24" t="n">
         <v>37.28541534396651</v>
@@ -6093,25 +6093,25 @@
         <v>1864.270767198325</v>
       </c>
       <c r="S24" t="n">
-        <v>1864.270767198325</v>
+        <v>1695.759099594251</v>
       </c>
       <c r="T24" t="n">
-        <v>1864.270767198325</v>
+        <v>1695.759099594251</v>
       </c>
       <c r="U24" t="n">
-        <v>1726.255776677132</v>
+        <v>1519.003824750107</v>
       </c>
       <c r="V24" t="n">
-        <v>1492.004533202733</v>
+        <v>1284.752581275708</v>
       </c>
       <c r="W24" t="n">
-        <v>1239.490041536066</v>
+        <v>1032.238089609041</v>
       </c>
       <c r="X24" t="n">
-        <v>1032.963142941644</v>
+        <v>825.7111910146189</v>
       </c>
       <c r="Y24" t="n">
-        <v>827.2347071652944</v>
+        <v>619.9827552382693</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="C25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="D25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="E25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="F25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="G25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="H25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="I25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="J25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
       <c r="K25" t="n">
         <v>37.28541534396651</v>
@@ -6172,25 +6172,25 @@
         <v>286.7668898851</v>
       </c>
       <c r="S25" t="n">
-        <v>272.0120158009836</v>
+        <v>277.5104461688246</v>
       </c>
       <c r="T25" t="n">
-        <v>255.4396970779626</v>
+        <v>260.9381274458036</v>
       </c>
       <c r="U25" t="n">
-        <v>180.1539483260433</v>
+        <v>185.6523786938843</v>
       </c>
       <c r="V25" t="n">
-        <v>138.3133136859747</v>
+        <v>143.8117440538157</v>
       </c>
       <c r="W25" t="n">
-        <v>62.98154185350575</v>
+        <v>68.47997222134669</v>
       </c>
       <c r="X25" t="n">
-        <v>48.20756492518451</v>
+        <v>44.59304271214529</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.89993755700573</v>
+        <v>37.28541534396651</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1418.290714000909</v>
+        <v>1418.29071400091</v>
       </c>
       <c r="C26" t="n">
-        <v>1207.775522116379</v>
+        <v>1207.77552211638</v>
       </c>
       <c r="D26" t="n">
-        <v>1007.745545306944</v>
+        <v>1007.745545306945</v>
       </c>
       <c r="E26" t="n">
-        <v>780.9344543553989</v>
+        <v>780.9344543553996</v>
       </c>
       <c r="F26" t="n">
-        <v>529.7033353985471</v>
+        <v>529.703335398548</v>
       </c>
       <c r="G26" t="n">
-        <v>271.0519443312834</v>
+        <v>271.0519443312843</v>
       </c>
       <c r="H26" t="n">
-        <v>91.89164737547418</v>
+        <v>91.89164737547421</v>
       </c>
       <c r="I26" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J26" t="n">
         <v>227.5251089776723</v>
@@ -6248,28 +6248,28 @@
         <v>2626.942076472249</v>
       </c>
       <c r="R26" t="n">
-        <v>2656.85909157563</v>
+        <v>2656.859091575631</v>
       </c>
       <c r="S26" t="n">
         <v>2614.036465674454</v>
       </c>
       <c r="T26" t="n">
-        <v>2549.945928234397</v>
+        <v>2549.945928234398</v>
       </c>
       <c r="U26" t="n">
         <v>2456.122169385339</v>
       </c>
       <c r="V26" t="n">
-        <v>2284.447254426489</v>
+        <v>2284.44725442649</v>
       </c>
       <c r="W26" t="n">
-        <v>2090.553253126189</v>
+        <v>2090.55325312619</v>
       </c>
       <c r="X26" t="n">
-        <v>1876.122401188904</v>
+        <v>1876.122401188905</v>
       </c>
       <c r="Y26" t="n">
-        <v>1645.706223372765</v>
+        <v>1645.706223372766</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>676.04392253128</v>
+        <v>770.9746332139873</v>
       </c>
       <c r="C27" t="n">
-        <v>503.2908074530972</v>
+        <v>598.2215181358044</v>
       </c>
       <c r="D27" t="n">
-        <v>355.7025008120411</v>
+        <v>492.9835762319924</v>
       </c>
       <c r="E27" t="n">
-        <v>198.0929718148957</v>
+        <v>335.3740472348471</v>
       </c>
       <c r="F27" t="n">
-        <v>53.13718183151261</v>
+        <v>190.418257251464</v>
       </c>
       <c r="G27" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="H27" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J27" t="n">
-        <v>71.28172707816539</v>
+        <v>71.2817270781654</v>
       </c>
       <c r="K27" t="n">
-        <v>228.8992581576236</v>
+        <v>228.8992581576237</v>
       </c>
       <c r="L27" t="n">
-        <v>501.6850868686244</v>
+        <v>501.6850868686245</v>
       </c>
       <c r="M27" t="n">
         <v>872.8134765727671</v>
@@ -6327,28 +6327,28 @@
         <v>1880.12253368587</v>
       </c>
       <c r="R27" t="n">
-        <v>1880.12253368587</v>
+        <v>1791.679833298965</v>
       </c>
       <c r="S27" t="n">
-        <v>1871.787690034582</v>
+        <v>1783.344989647676</v>
       </c>
       <c r="T27" t="n">
-        <v>1832.046109218285</v>
+        <v>1743.603408831379</v>
       </c>
       <c r="U27" t="n">
-        <v>1742.107543164678</v>
+        <v>1676.8614298946</v>
       </c>
       <c r="V27" t="n">
-        <v>1507.856299690279</v>
+        <v>1442.610186420201</v>
       </c>
       <c r="W27" t="n">
-        <v>1255.341808023612</v>
+        <v>1190.095694753534</v>
       </c>
       <c r="X27" t="n">
-        <v>1048.81490942919</v>
+        <v>983.5687961591117</v>
       </c>
       <c r="Y27" t="n">
-        <v>843.0864736528405</v>
+        <v>777.8403603827621</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.52293400175235</v>
+        <v>62.03850677709447</v>
       </c>
       <c r="C28" t="n">
-        <v>64.67293681190935</v>
+        <v>53.18850958725145</v>
       </c>
       <c r="D28" t="n">
-        <v>64.67293681190935</v>
+        <v>53.18850958725145</v>
       </c>
       <c r="E28" t="n">
-        <v>64.67293681190935</v>
+        <v>64.67293681190942</v>
       </c>
       <c r="F28" t="n">
-        <v>64.67293681190935</v>
+        <v>64.67293681190942</v>
       </c>
       <c r="G28" t="n">
-        <v>55.36165727859617</v>
+        <v>55.36165727859621</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="I28" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J28" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="K28" t="n">
-        <v>206.5838937666381</v>
+        <v>206.583893766638</v>
       </c>
       <c r="L28" t="n">
-        <v>414.8435144084779</v>
+        <v>257.8542092523527</v>
       </c>
       <c r="M28" t="n">
-        <v>586.9620806713557</v>
+        <v>322.5044679257285</v>
       </c>
       <c r="N28" t="n">
-        <v>655.2163625887523</v>
+        <v>547.7480549992503</v>
       </c>
       <c r="O28" t="n">
-        <v>702.9236426596945</v>
+        <v>691.4392154350369</v>
       </c>
       <c r="P28" t="n">
-        <v>720.5229810533988</v>
+        <v>709.0385538287412</v>
       </c>
       <c r="Q28" t="n">
-        <v>720.5229810533988</v>
+        <v>709.0385538287412</v>
       </c>
       <c r="R28" t="n">
-        <v>709.9339864645514</v>
+        <v>698.4495592398938</v>
       </c>
       <c r="S28" t="n">
-        <v>647.2037376371513</v>
+        <v>635.7193104124937</v>
       </c>
       <c r="T28" t="n">
-        <v>577.1576138030056</v>
+        <v>565.6731865783479</v>
       </c>
       <c r="U28" t="n">
-        <v>448.3980599399616</v>
+        <v>436.9136327153038</v>
       </c>
       <c r="V28" t="n">
-        <v>353.0836201887682</v>
+        <v>341.5991929641105</v>
       </c>
       <c r="W28" t="n">
-        <v>224.2780432451746</v>
+        <v>212.7936160205168</v>
       </c>
       <c r="X28" t="n">
-        <v>156.0302612057286</v>
+        <v>144.5458339810708</v>
       </c>
       <c r="Y28" t="n">
-        <v>95.24882872642512</v>
+        <v>83.76440150176727</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1418.290714000909</v>
+        <v>1418.29071400091</v>
       </c>
       <c r="C29" t="n">
-        <v>1207.775522116379</v>
+        <v>1207.77552211638</v>
       </c>
       <c r="D29" t="n">
-        <v>1007.745545306944</v>
+        <v>1007.745545306945</v>
       </c>
       <c r="E29" t="n">
-        <v>780.9344543553993</v>
+        <v>780.9344543553996</v>
       </c>
       <c r="F29" t="n">
-        <v>529.7033353985478</v>
+        <v>529.703335398548</v>
       </c>
       <c r="G29" t="n">
-        <v>271.0519443312842</v>
+        <v>271.0519443312843</v>
       </c>
       <c r="H29" t="n">
-        <v>91.89164737547458</v>
+        <v>91.89164737547421</v>
       </c>
       <c r="I29" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J29" t="n">
-        <v>227.5251089776724</v>
+        <v>227.5251089776723</v>
       </c>
       <c r="K29" t="n">
-        <v>532.8670311009795</v>
+        <v>532.8670311009796</v>
       </c>
       <c r="L29" t="n">
         <v>925.8699539637823</v>
@@ -6485,10 +6485,10 @@
         <v>2626.942076472249</v>
       </c>
       <c r="R29" t="n">
-        <v>2656.85909157563</v>
+        <v>2656.859091575631</v>
       </c>
       <c r="S29" t="n">
-        <v>2614.036465674454</v>
+        <v>2614.036465674455</v>
       </c>
       <c r="T29" t="n">
         <v>2549.945928234398</v>
@@ -6506,7 +6506,7 @@
         <v>1876.122401188905</v>
       </c>
       <c r="Y29" t="n">
-        <v>1645.706223372765</v>
+        <v>1645.706223372766</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.04392253128</v>
+        <v>450.6209853084164</v>
       </c>
       <c r="C30" t="n">
-        <v>503.2908074530972</v>
+        <v>277.8678702302336</v>
       </c>
       <c r="D30" t="n">
-        <v>355.7025008120411</v>
+        <v>277.8678702302336</v>
       </c>
       <c r="E30" t="n">
-        <v>198.0929718148957</v>
+        <v>190.418257251464</v>
       </c>
       <c r="F30" t="n">
-        <v>53.13718183151261</v>
+        <v>190.418257251464</v>
       </c>
       <c r="G30" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="H30" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J30" t="n">
-        <v>71.28172707816539</v>
+        <v>71.2817270781654</v>
       </c>
       <c r="K30" t="n">
-        <v>228.8992581576236</v>
+        <v>228.8992581576237</v>
       </c>
       <c r="L30" t="n">
-        <v>501.6850868686244</v>
+        <v>501.6850868686245</v>
       </c>
       <c r="M30" t="n">
         <v>872.8134765727671</v>
@@ -6564,28 +6564,28 @@
         <v>1880.12253368587</v>
       </c>
       <c r="R30" t="n">
-        <v>1880.12253368587</v>
+        <v>1791.679833298965</v>
       </c>
       <c r="S30" t="n">
-        <v>1871.787690034582</v>
+        <v>1623.168165694891</v>
       </c>
       <c r="T30" t="n">
-        <v>1832.046109218285</v>
+        <v>1423.249760925808</v>
       </c>
       <c r="U30" t="n">
-        <v>1742.107543164678</v>
+        <v>1356.507781989029</v>
       </c>
       <c r="V30" t="n">
-        <v>1507.856299690279</v>
+        <v>1122.25653851463</v>
       </c>
       <c r="W30" t="n">
-        <v>1255.341808023612</v>
+        <v>1029.918870800749</v>
       </c>
       <c r="X30" t="n">
-        <v>1048.81490942919</v>
+        <v>823.3919722063264</v>
       </c>
       <c r="Y30" t="n">
-        <v>843.0864736528405</v>
+        <v>617.6635364299768</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.52293400175209</v>
+        <v>64.04913969500146</v>
       </c>
       <c r="C31" t="n">
-        <v>64.67293681190918</v>
+        <v>55.19914250515843</v>
       </c>
       <c r="D31" t="n">
-        <v>64.67293681190918</v>
+        <v>64.67293681190942</v>
       </c>
       <c r="E31" t="n">
-        <v>64.67293681190918</v>
+        <v>64.67293681190942</v>
       </c>
       <c r="F31" t="n">
-        <v>64.67293681190918</v>
+        <v>64.67293681190942</v>
       </c>
       <c r="G31" t="n">
-        <v>55.36165727859608</v>
+        <v>55.36165727859621</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="I31" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J31" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="K31" t="n">
-        <v>53.13718183151261</v>
+        <v>147.5891018932643</v>
       </c>
       <c r="L31" t="n">
-        <v>104.4074973172273</v>
+        <v>355.8487225351041</v>
       </c>
       <c r="M31" t="n">
-        <v>169.0577559906031</v>
+        <v>577.4882863646051</v>
       </c>
       <c r="N31" t="n">
-        <v>394.301343064125</v>
+        <v>645.7425682820017</v>
       </c>
       <c r="O31" t="n">
-        <v>459.9194404926684</v>
+        <v>693.4498483529438</v>
       </c>
       <c r="P31" t="n">
-        <v>634.508084042498</v>
+        <v>711.0491867466482</v>
       </c>
       <c r="Q31" t="n">
-        <v>720.5229810533978</v>
+        <v>711.0491867466482</v>
       </c>
       <c r="R31" t="n">
-        <v>709.9339864645505</v>
+        <v>700.4601921578007</v>
       </c>
       <c r="S31" t="n">
-        <v>647.2037376371504</v>
+        <v>637.7299433304006</v>
       </c>
       <c r="T31" t="n">
-        <v>577.1576138030048</v>
+        <v>567.6838194962548</v>
       </c>
       <c r="U31" t="n">
-        <v>448.3980599399609</v>
+        <v>438.9242656332108</v>
       </c>
       <c r="V31" t="n">
-        <v>353.0836201887677</v>
+        <v>343.6098258820175</v>
       </c>
       <c r="W31" t="n">
-        <v>224.278043245174</v>
+        <v>214.8042489384237</v>
       </c>
       <c r="X31" t="n">
-        <v>156.0302612057282</v>
+        <v>146.5564668989778</v>
       </c>
       <c r="Y31" t="n">
-        <v>95.24882872642476</v>
+        <v>85.77503441967426</v>
       </c>
     </row>
     <row r="32">
@@ -6683,31 +6683,31 @@
         <v>1007.745545306944</v>
       </c>
       <c r="E32" t="n">
-        <v>780.9344543553989</v>
+        <v>780.9344543553988</v>
       </c>
       <c r="F32" t="n">
-        <v>529.7033353985473</v>
+        <v>529.7033353985471</v>
       </c>
       <c r="G32" t="n">
-        <v>271.0519443312837</v>
+        <v>271.0519443312833</v>
       </c>
       <c r="H32" t="n">
-        <v>91.89164737547415</v>
+        <v>91.89164737547424</v>
       </c>
       <c r="I32" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J32" t="n">
-        <v>227.5251089776723</v>
+        <v>227.5251089776719</v>
       </c>
       <c r="K32" t="n">
-        <v>532.8670311009796</v>
+        <v>532.8670311009791</v>
       </c>
       <c r="L32" t="n">
-        <v>925.8699539637823</v>
+        <v>925.8699539637819</v>
       </c>
       <c r="M32" t="n">
-        <v>1360.682177632259</v>
+        <v>1360.682177632258</v>
       </c>
       <c r="N32" t="n">
         <v>1784.472691584914</v>
@@ -6719,16 +6719,16 @@
         <v>2442.966322247981</v>
       </c>
       <c r="Q32" t="n">
-        <v>2626.942076472249</v>
+        <v>2626.942076472248</v>
       </c>
       <c r="R32" t="n">
-        <v>2656.85909157563</v>
+        <v>2656.859091575631</v>
       </c>
       <c r="S32" t="n">
-        <v>2614.036465674454</v>
+        <v>2614.036465674455</v>
       </c>
       <c r="T32" t="n">
-        <v>2549.945928234397</v>
+        <v>2549.945928234398</v>
       </c>
       <c r="U32" t="n">
         <v>2456.122169385339</v>
@@ -6740,7 +6740,7 @@
         <v>2090.553253126189</v>
       </c>
       <c r="X32" t="n">
-        <v>1876.122401188904</v>
+        <v>1876.122401188905</v>
       </c>
       <c r="Y32" t="n">
         <v>1645.706223372765</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>539.0636856953219</v>
+        <v>770.9746332139877</v>
       </c>
       <c r="C33" t="n">
-        <v>366.310570617139</v>
+        <v>598.2215181358049</v>
       </c>
       <c r="D33" t="n">
-        <v>218.7222639760829</v>
+        <v>450.6332114947488</v>
       </c>
       <c r="E33" t="n">
-        <v>61.1127349789376</v>
+        <v>418.7538338142244</v>
       </c>
       <c r="F33" t="n">
-        <v>53.13718183151261</v>
+        <v>273.7980438308413</v>
       </c>
       <c r="G33" t="n">
-        <v>53.13718183151261</v>
+        <v>136.5169684108899</v>
       </c>
       <c r="H33" t="n">
-        <v>53.13718183151261</v>
+        <v>136.5169684108899</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13718183151261</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="J33" t="n">
-        <v>71.28172707816539</v>
+        <v>71.2817270781654</v>
       </c>
       <c r="K33" t="n">
-        <v>228.8992581576236</v>
+        <v>228.8992581576237</v>
       </c>
       <c r="L33" t="n">
-        <v>501.6850868686244</v>
+        <v>501.6850868686245</v>
       </c>
       <c r="M33" t="n">
         <v>872.8134765727671</v>
@@ -6801,28 +6801,28 @@
         <v>1880.12253368587</v>
       </c>
       <c r="R33" t="n">
-        <v>1880.12253368587</v>
+        <v>1791.679833298965</v>
       </c>
       <c r="S33" t="n">
-        <v>1871.787690034582</v>
+        <v>1623.168165694891</v>
       </c>
       <c r="T33" t="n">
-        <v>1832.046109218285</v>
+        <v>1583.426584878594</v>
       </c>
       <c r="U33" t="n">
-        <v>1605.12730632872</v>
+        <v>1356.507781989029</v>
       </c>
       <c r="V33" t="n">
-        <v>1370.876062854321</v>
+        <v>1122.25653851463</v>
       </c>
       <c r="W33" t="n">
-        <v>1118.361571187654</v>
+        <v>1029.918870800749</v>
       </c>
       <c r="X33" t="n">
-        <v>911.8346725932319</v>
+        <v>983.568796159112</v>
       </c>
       <c r="Y33" t="n">
-        <v>706.1062368168823</v>
+        <v>938.0171843355481</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.98717902135557</v>
+        <v>73.52293400175253</v>
       </c>
       <c r="C34" t="n">
-        <v>53.13718183151261</v>
+        <v>64.67293681190948</v>
       </c>
       <c r="D34" t="n">
-        <v>62.61097613826366</v>
+        <v>64.67293681190948</v>
       </c>
       <c r="E34" t="n">
-        <v>74.0954033629217</v>
+        <v>64.67293681190948</v>
       </c>
       <c r="F34" t="n">
-        <v>86.38727732334047</v>
+        <v>64.67293681190948</v>
       </c>
       <c r="G34" t="n">
-        <v>77.07599779002732</v>
+        <v>55.36165727859624</v>
       </c>
       <c r="H34" t="n">
-        <v>74.85152234294378</v>
+        <v>53.13718183151262</v>
       </c>
       <c r="I34" t="n">
-        <v>82.48888897856426</v>
+        <v>60.77454846713302</v>
       </c>
       <c r="J34" t="n">
-        <v>158.2727166117532</v>
+        <v>60.77454846713302</v>
       </c>
       <c r="K34" t="n">
-        <v>311.7194285468787</v>
+        <v>60.77454846713302</v>
       </c>
       <c r="L34" t="n">
-        <v>424.7611700066831</v>
+        <v>112.0448639528477</v>
       </c>
       <c r="M34" t="n">
-        <v>489.4114286800589</v>
+        <v>186.9685733482067</v>
       </c>
       <c r="N34" t="n">
-        <v>557.6657105974555</v>
+        <v>412.2121604217284</v>
       </c>
       <c r="O34" t="n">
-        <v>605.3729906683976</v>
+        <v>616.9087456487956</v>
       </c>
       <c r="P34" t="n">
-        <v>622.9723290621019</v>
+        <v>634.5080840424999</v>
       </c>
       <c r="Q34" t="n">
-        <v>708.9872260730017</v>
+        <v>720.5229810533996</v>
       </c>
       <c r="R34" t="n">
-        <v>698.3982314841544</v>
+        <v>709.9339864645522</v>
       </c>
       <c r="S34" t="n">
-        <v>635.6679826567544</v>
+        <v>647.203737637152</v>
       </c>
       <c r="T34" t="n">
-        <v>565.6218588226086</v>
+        <v>577.1576138030061</v>
       </c>
       <c r="U34" t="n">
-        <v>436.8623049595647</v>
+        <v>448.3980599399621</v>
       </c>
       <c r="V34" t="n">
-        <v>341.5478652083714</v>
+        <v>353.0836201887687</v>
       </c>
       <c r="W34" t="n">
-        <v>212.7422882647777</v>
+        <v>224.2780432451749</v>
       </c>
       <c r="X34" t="n">
-        <v>144.4945062253318</v>
+        <v>156.0302612057289</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.71307374602831</v>
+        <v>95.24882872642536</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1054.863198178707</v>
       </c>
       <c r="C35" t="n">
-        <v>895.9030628811104</v>
+        <v>895.9030628811109</v>
       </c>
       <c r="D35" t="n">
-        <v>747.4281426586092</v>
+        <v>747.4281426586097</v>
       </c>
       <c r="E35" t="n">
-        <v>572.1721082939978</v>
+        <v>572.1721082939982</v>
       </c>
       <c r="F35" t="n">
-        <v>372.4960459240799</v>
+        <v>372.4960459240803</v>
       </c>
       <c r="G35" t="n">
         <v>165.3997114437503</v>
@@ -6932,34 +6932,34 @@
         <v>37.79447107487432</v>
       </c>
       <c r="I35" t="n">
-        <v>50.34033035609132</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="J35" t="n">
-        <v>275.2573684631047</v>
+        <v>55.19309306490885</v>
       </c>
       <c r="K35" t="n">
-        <v>423.6099854302868</v>
+        <v>411.0641261490699</v>
       </c>
       <c r="L35" t="n">
-        <v>659.6236031369643</v>
+        <v>692.2464601966008</v>
       </c>
       <c r="M35" t="n">
-        <v>937.4465216493156</v>
+        <v>970.0693787089519</v>
       </c>
       <c r="N35" t="n">
-        <v>1221.698886828432</v>
+        <v>1437.775958260522</v>
       </c>
       <c r="O35" t="n">
-        <v>1635.021767457624</v>
+        <v>1643.580422772735</v>
       </c>
       <c r="P35" t="n">
-        <v>1773.732323296227</v>
+        <v>1782.290978611338</v>
       </c>
       <c r="Q35" t="n">
-        <v>1800.71877236437</v>
+        <v>1809.277427679481</v>
       </c>
       <c r="R35" t="n">
-        <v>1881.164898428605</v>
+        <v>1889.723553743716</v>
       </c>
       <c r="S35" t="n">
         <v>1889.723553743716</v>
@@ -6971,7 +6971,7 @@
         <v>1834.919370628468</v>
       </c>
       <c r="V35" t="n">
-        <v>1714.799512256551</v>
+        <v>1714.799512256552</v>
       </c>
       <c r="W35" t="n">
         <v>1572.460567543186</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>660.7012117746417</v>
+        <v>681.784836410377</v>
       </c>
       <c r="C36" t="n">
-        <v>487.9480966964589</v>
+        <v>681.784836410377</v>
       </c>
       <c r="D36" t="n">
-        <v>340.3597900554028</v>
+        <v>534.1965297693209</v>
       </c>
       <c r="E36" t="n">
-        <v>182.7502610582575</v>
+        <v>376.5870007721757</v>
       </c>
       <c r="F36" t="n">
-        <v>37.79447107487432</v>
+        <v>231.6312107887925</v>
       </c>
       <c r="G36" t="n">
-        <v>37.79447107487432</v>
+        <v>231.6312107887925</v>
       </c>
       <c r="H36" t="n">
-        <v>37.79447107487432</v>
+        <v>121.1742576542516</v>
       </c>
       <c r="I36" t="n">
         <v>37.79447107487432</v>
@@ -7041,25 +7041,25 @@
         <v>1864.779822929232</v>
       </c>
       <c r="S36" t="n">
-        <v>1864.779822929232</v>
+        <v>1696.268155325158</v>
       </c>
       <c r="T36" t="n">
-        <v>1864.779822929232</v>
+        <v>1595.99282827206</v>
       </c>
       <c r="U36" t="n">
-        <v>1726.76483240804</v>
+        <v>1369.074025382496</v>
       </c>
       <c r="V36" t="n">
-        <v>1492.513588933641</v>
+        <v>1346.554662447816</v>
       </c>
       <c r="W36" t="n">
-        <v>1239.999097266974</v>
+        <v>1094.040170781149</v>
       </c>
       <c r="X36" t="n">
-        <v>1033.472198672552</v>
+        <v>887.5132721867266</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.7437628962022</v>
+        <v>681.784836410377</v>
       </c>
     </row>
     <row r="37">
@@ -7084,10 +7084,10 @@
         <v>37.79447107487432</v>
       </c>
       <c r="G37" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333117</v>
       </c>
       <c r="H37" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333117</v>
       </c>
       <c r="I37" t="n">
         <v>42.11275816333117</v>
@@ -7132,7 +7132,7 @@
         <v>140.9640927764164</v>
       </c>
       <c r="W37" t="n">
-        <v>63.71357241975633</v>
+        <v>63.71357241975635</v>
       </c>
       <c r="X37" t="n">
         <v>47.0208469672441</v>
@@ -7151,52 +7151,52 @@
         <v>1054.863198178708</v>
       </c>
       <c r="C38" t="n">
-        <v>895.9030628811111</v>
+        <v>895.9030628811112</v>
       </c>
       <c r="D38" t="n">
-        <v>747.4281426586098</v>
+        <v>747.42814265861</v>
       </c>
       <c r="E38" t="n">
-        <v>572.1721082939983</v>
+        <v>572.1721082939986</v>
       </c>
       <c r="F38" t="n">
-        <v>372.4960459240805</v>
+        <v>372.4960459240807</v>
       </c>
       <c r="G38" t="n">
-        <v>165.3997114437503</v>
+        <v>165.3997114437502</v>
       </c>
       <c r="H38" t="n">
         <v>37.79447107487432</v>
       </c>
       <c r="I38" t="n">
-        <v>50.34033035609132</v>
+        <v>50.34033035609139</v>
       </c>
       <c r="J38" t="n">
-        <v>67.73895234612584</v>
+        <v>275.2573684631049</v>
       </c>
       <c r="K38" t="n">
-        <v>233.5427256958941</v>
+        <v>423.6099854302869</v>
       </c>
       <c r="L38" t="n">
-        <v>469.5563434025716</v>
+        <v>867.1420192539434</v>
       </c>
       <c r="M38" t="n">
-        <v>747.3792619149228</v>
+        <v>1162.416094148881</v>
       </c>
       <c r="N38" t="n">
-        <v>1014.180470711453</v>
+        <v>1429.217302945411</v>
       </c>
       <c r="O38" t="n">
-        <v>1219.984935223667</v>
+        <v>1635.021767457625</v>
       </c>
       <c r="P38" t="n">
-        <v>1566.213907179249</v>
+        <v>1773.732323296228</v>
       </c>
       <c r="Q38" t="n">
         <v>1800.71877236437</v>
       </c>
       <c r="R38" t="n">
-        <v>1881.164898428605</v>
+        <v>1881.164898428606</v>
       </c>
       <c r="S38" t="n">
         <v>1889.723553743716</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>660.7012117746417</v>
+        <v>846.8632369251281</v>
       </c>
       <c r="C39" t="n">
-        <v>487.9480966964589</v>
+        <v>674.1101218469453</v>
       </c>
       <c r="D39" t="n">
-        <v>340.3597900554028</v>
+        <v>526.5218152058892</v>
       </c>
       <c r="E39" t="n">
-        <v>182.7502610582575</v>
+        <v>368.9122862087439</v>
       </c>
       <c r="F39" t="n">
-        <v>37.79447107487432</v>
+        <v>368.9122862087439</v>
       </c>
       <c r="G39" t="n">
-        <v>37.79447107487432</v>
+        <v>231.6312107887925</v>
       </c>
       <c r="H39" t="n">
-        <v>37.79447107487432</v>
+        <v>121.1742576542516</v>
       </c>
       <c r="I39" t="n">
         <v>37.79447107487432</v>
@@ -7275,28 +7275,28 @@
         <v>1864.779822929232</v>
       </c>
       <c r="R39" t="n">
-        <v>1864.779822929232</v>
+        <v>1776.337122542326</v>
       </c>
       <c r="S39" t="n">
-        <v>1864.779822929232</v>
+        <v>1776.337122542326</v>
       </c>
       <c r="T39" t="n">
-        <v>1864.779822929232</v>
+        <v>1776.337122542326</v>
       </c>
       <c r="U39" t="n">
-        <v>1726.76483240804</v>
+        <v>1549.418319652762</v>
       </c>
       <c r="V39" t="n">
-        <v>1492.513588933641</v>
+        <v>1315.167076178363</v>
       </c>
       <c r="W39" t="n">
-        <v>1239.999097266974</v>
+        <v>1219.634223823038</v>
       </c>
       <c r="X39" t="n">
-        <v>1033.472198672552</v>
+        <v>1219.634223823038</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.7437628962022</v>
+        <v>1013.905788046689</v>
       </c>
     </row>
     <row r="40">
@@ -7324,55 +7324,55 @@
         <v>37.79447107487432</v>
       </c>
       <c r="H40" t="n">
-        <v>42.11275816333117</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="I40" t="n">
-        <v>42.11275816333117</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="J40" t="n">
-        <v>42.11275816333117</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="K40" t="n">
-        <v>42.11275816333117</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="L40" t="n">
-        <v>93.38307364904585</v>
+        <v>89.064786560589</v>
       </c>
       <c r="M40" t="n">
-        <v>158.0333323224216</v>
+        <v>153.7150452339648</v>
       </c>
       <c r="N40" t="n">
-        <v>226.2876142398183</v>
+        <v>221.9693271513614</v>
       </c>
       <c r="O40" t="n">
-        <v>273.9948943107603</v>
+        <v>273.99489431076</v>
       </c>
       <c r="P40" t="n">
-        <v>291.5942327044647</v>
+        <v>291.5942327044643</v>
       </c>
       <c r="Q40" t="n">
-        <v>291.5942327044647</v>
+        <v>291.5942327044643</v>
       </c>
       <c r="R40" t="n">
-        <v>291.5942327044647</v>
+        <v>291.5942327044643</v>
       </c>
       <c r="S40" t="n">
-        <v>280.4190404639983</v>
+        <v>280.419040463998</v>
       </c>
       <c r="T40" t="n">
-        <v>261.9279732167862</v>
+        <v>261.927973216786</v>
       </c>
       <c r="U40" t="n">
-        <v>184.723475940676</v>
+        <v>184.7234759406757</v>
       </c>
       <c r="V40" t="n">
-        <v>140.9640927764164</v>
+        <v>140.9640927764162</v>
       </c>
       <c r="W40" t="n">
-        <v>63.71357241975633</v>
+        <v>63.71357241975623</v>
       </c>
       <c r="X40" t="n">
-        <v>47.0208469672441</v>
+        <v>47.02084696724405</v>
       </c>
       <c r="Y40" t="n">
         <v>37.79447107487432</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1054.863198178707</v>
+        <v>1054.863198178708</v>
       </c>
       <c r="C41" t="n">
-        <v>895.9030628811107</v>
+        <v>895.9030628811111</v>
       </c>
       <c r="D41" t="n">
-        <v>747.4281426586094</v>
+        <v>747.4281426586099</v>
       </c>
       <c r="E41" t="n">
-        <v>572.1721082939979</v>
+        <v>572.1721082939985</v>
       </c>
       <c r="F41" t="n">
-        <v>372.4960459240799</v>
+        <v>372.4960459240804</v>
       </c>
       <c r="G41" t="n">
         <v>165.3997114437503</v>
@@ -7406,52 +7406,52 @@
         <v>37.79447107487432</v>
       </c>
       <c r="I41" t="n">
-        <v>50.34033035609127</v>
+        <v>50.3403303560913</v>
       </c>
       <c r="J41" t="n">
-        <v>67.7389523461258</v>
+        <v>198.4426905477576</v>
       </c>
       <c r="K41" t="n">
-        <v>233.5427256958941</v>
+        <v>346.7953075149397</v>
       </c>
       <c r="L41" t="n">
-        <v>469.5563434025716</v>
+        <v>582.8089252216173</v>
       </c>
       <c r="M41" t="n">
-        <v>747.3792619149228</v>
+        <v>1050.515504773187</v>
       </c>
       <c r="N41" t="n">
-        <v>1014.180470711453</v>
+        <v>1518.222084324757</v>
       </c>
       <c r="O41" t="n">
-        <v>1219.984935223667</v>
+        <v>1724.026548836971</v>
       </c>
       <c r="P41" t="n">
-        <v>1566.213907179249</v>
+        <v>1862.737104675573</v>
       </c>
       <c r="Q41" t="n">
-        <v>1800.71877236437</v>
+        <v>1889.723553743716</v>
       </c>
       <c r="R41" t="n">
-        <v>1881.164898428605</v>
+        <v>1889.723553743716</v>
       </c>
       <c r="S41" t="n">
         <v>1889.723553743716</v>
       </c>
       <c r="T41" t="n">
-        <v>1877.188072890593</v>
+        <v>1877.188072890594</v>
       </c>
       <c r="U41" t="n">
-        <v>1834.919370628468</v>
+        <v>1834.919370628469</v>
       </c>
       <c r="V41" t="n">
-        <v>1714.799512256552</v>
+        <v>1714.799512256553</v>
       </c>
       <c r="W41" t="n">
         <v>1572.460567543186</v>
       </c>
       <c r="X41" t="n">
-        <v>1409.584772192835</v>
+        <v>1409.584772192836</v>
       </c>
       <c r="Y41" t="n">
         <v>1230.72365096363</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>660.7012117746417</v>
+        <v>416.0648620713482</v>
       </c>
       <c r="C42" t="n">
-        <v>487.9480966964589</v>
+        <v>416.0648620713482</v>
       </c>
       <c r="D42" t="n">
-        <v>340.3597900554028</v>
+        <v>416.0648620713482</v>
       </c>
       <c r="E42" t="n">
-        <v>182.7502610582575</v>
+        <v>258.4553330742029</v>
       </c>
       <c r="F42" t="n">
-        <v>37.79447107487432</v>
+        <v>258.4553330742029</v>
       </c>
       <c r="G42" t="n">
-        <v>37.79447107487432</v>
+        <v>121.1742576542516</v>
       </c>
       <c r="H42" t="n">
-        <v>37.79447107487432</v>
+        <v>121.1742576542516</v>
       </c>
       <c r="I42" t="n">
         <v>37.79447107487432</v>
@@ -7512,28 +7512,28 @@
         <v>1864.779822929232</v>
       </c>
       <c r="R42" t="n">
-        <v>1864.779822929232</v>
+        <v>1776.337122542326</v>
       </c>
       <c r="S42" t="n">
-        <v>1864.779822929232</v>
+        <v>1697.233809823674</v>
       </c>
       <c r="T42" t="n">
-        <v>1864.779822929232</v>
+        <v>1497.315405054592</v>
       </c>
       <c r="U42" t="n">
-        <v>1726.76483240804</v>
+        <v>1270.396602165027</v>
       </c>
       <c r="V42" t="n">
-        <v>1492.513588933641</v>
+        <v>1247.877239230347</v>
       </c>
       <c r="W42" t="n">
-        <v>1239.999097266974</v>
+        <v>995.3627475636807</v>
       </c>
       <c r="X42" t="n">
-        <v>1033.472198672552</v>
+        <v>788.8358489692582</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.7437628962022</v>
+        <v>583.1074131929087</v>
       </c>
     </row>
     <row r="43">
@@ -7546,70 +7546,70 @@
         <v>37.79447107487432</v>
       </c>
       <c r="C43" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="D43" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="E43" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="F43" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="G43" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="H43" t="n">
-        <v>37.79447107487432</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="I43" t="n">
-        <v>42.11275816333163</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="J43" t="n">
-        <v>42.11275816333163</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="K43" t="n">
-        <v>42.11275816333163</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="L43" t="n">
-        <v>93.38307364904631</v>
+        <v>93.38307364904603</v>
       </c>
       <c r="M43" t="n">
-        <v>158.0333323224221</v>
+        <v>158.0333323224218</v>
       </c>
       <c r="N43" t="n">
-        <v>226.2876142398187</v>
+        <v>226.2876142398184</v>
       </c>
       <c r="O43" t="n">
-        <v>273.9948943107608</v>
+        <v>273.9948943107605</v>
       </c>
       <c r="P43" t="n">
-        <v>291.5942327044651</v>
+        <v>291.5942327044648</v>
       </c>
       <c r="Q43" t="n">
-        <v>291.5942327044651</v>
+        <v>291.5942327044648</v>
       </c>
       <c r="R43" t="n">
-        <v>291.5942327044651</v>
+        <v>291.5942327044648</v>
       </c>
       <c r="S43" t="n">
-        <v>280.4190404639987</v>
+        <v>280.4190404639984</v>
       </c>
       <c r="T43" t="n">
-        <v>261.9279732167865</v>
+        <v>261.9279732167864</v>
       </c>
       <c r="U43" t="n">
-        <v>184.7234759406762</v>
+        <v>184.7234759406761</v>
       </c>
       <c r="V43" t="n">
-        <v>140.9640927764165</v>
+        <v>140.9640927764164</v>
       </c>
       <c r="W43" t="n">
-        <v>63.71357241975645</v>
+        <v>63.7135724197564</v>
       </c>
       <c r="X43" t="n">
-        <v>47.02084696724415</v>
+        <v>47.02084696724413</v>
       </c>
       <c r="Y43" t="n">
         <v>37.79447107487432</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1054.863198178708</v>
+        <v>1054.863198178707</v>
       </c>
       <c r="C44" t="n">
         <v>895.9030628811108</v>
       </c>
       <c r="D44" t="n">
-        <v>747.4281426586094</v>
+        <v>747.4281426586097</v>
       </c>
       <c r="E44" t="n">
-        <v>572.1721082939979</v>
+        <v>572.172108293998</v>
       </c>
       <c r="F44" t="n">
-        <v>372.4960459240799</v>
+        <v>372.4960459240801</v>
       </c>
       <c r="G44" t="n">
         <v>165.3997114437503</v>
@@ -7643,34 +7643,34 @@
         <v>37.79447107487432</v>
       </c>
       <c r="I44" t="n">
-        <v>50.34033035609127</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="J44" t="n">
-        <v>275.2573684631046</v>
+        <v>55.19309306490885</v>
       </c>
       <c r="K44" t="n">
-        <v>441.0611418128732</v>
+        <v>203.5457100320909</v>
       </c>
       <c r="L44" t="n">
-        <v>677.0747595195508</v>
+        <v>439.5593277387685</v>
       </c>
       <c r="M44" t="n">
-        <v>954.8976780319019</v>
+        <v>907.2659072903382</v>
       </c>
       <c r="N44" t="n">
-        <v>1221.698886828432</v>
+        <v>1174.067116086868</v>
       </c>
       <c r="O44" t="n">
-        <v>1427.503351340646</v>
+        <v>1516.508132719992</v>
       </c>
       <c r="P44" t="n">
-        <v>1566.213907179249</v>
+        <v>1655.218688558595</v>
       </c>
       <c r="Q44" t="n">
-        <v>1800.71877236437</v>
+        <v>1889.723553743716</v>
       </c>
       <c r="R44" t="n">
-        <v>1881.164898428605</v>
+        <v>1889.723553743716</v>
       </c>
       <c r="S44" t="n">
         <v>1889.723553743716</v>
@@ -7688,7 +7688,7 @@
         <v>1572.460567543186</v>
       </c>
       <c r="X44" t="n">
-        <v>1409.584772192836</v>
+        <v>1409.584772192835</v>
       </c>
       <c r="Y44" t="n">
         <v>1230.72365096363</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>571.7973994062689</v>
+        <v>844.2307202674551</v>
       </c>
       <c r="C45" t="n">
-        <v>399.0442843280861</v>
+        <v>671.4776051892723</v>
       </c>
       <c r="D45" t="n">
-        <v>251.45597768703</v>
+        <v>671.4776051892723</v>
       </c>
       <c r="E45" t="n">
-        <v>93.84644868988468</v>
+        <v>513.868076192127</v>
       </c>
       <c r="F45" t="n">
-        <v>37.79447107487432</v>
+        <v>368.9122862087439</v>
       </c>
       <c r="G45" t="n">
-        <v>37.79447107487432</v>
+        <v>231.6312107887925</v>
       </c>
       <c r="H45" t="n">
-        <v>37.79447107487432</v>
+        <v>121.1742576542516</v>
       </c>
       <c r="I45" t="n">
         <v>37.79447107487432</v>
@@ -7752,25 +7752,25 @@
         <v>1864.779822929232</v>
       </c>
       <c r="S45" t="n">
-        <v>1864.779822929232</v>
+        <v>1696.268155325158</v>
       </c>
       <c r="T45" t="n">
-        <v>1864.779822929232</v>
+        <v>1496.349750556076</v>
       </c>
       <c r="U45" t="n">
-        <v>1637.861020039667</v>
+        <v>1481.16282820623</v>
       </c>
       <c r="V45" t="n">
-        <v>1403.609776565268</v>
+        <v>1458.643465271551</v>
       </c>
       <c r="W45" t="n">
-        <v>1151.095284898601</v>
+        <v>1217.001707165365</v>
       </c>
       <c r="X45" t="n">
-        <v>944.5683863041789</v>
+        <v>1217.001707165365</v>
       </c>
       <c r="Y45" t="n">
-        <v>738.8399505278294</v>
+        <v>1011.273271389016</v>
       </c>
     </row>
     <row r="46">
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.11275816333163</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="C46" t="n">
-        <v>42.11275816333163</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="D46" t="n">
-        <v>42.11275816333163</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="E46" t="n">
-        <v>42.11275816333163</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="F46" t="n">
-        <v>42.11275816333163</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="G46" t="n">
-        <v>42.11275816333163</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="H46" t="n">
-        <v>42.11275816333163</v>
+        <v>37.79447107487432</v>
       </c>
       <c r="I46" t="n">
-        <v>42.11275816333163</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="J46" t="n">
-        <v>42.11275816333163</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="K46" t="n">
-        <v>42.11275816333163</v>
+        <v>42.11275816333134</v>
       </c>
       <c r="L46" t="n">
-        <v>93.38307364904631</v>
+        <v>93.38307364904603</v>
       </c>
       <c r="M46" t="n">
-        <v>158.0333323224221</v>
+        <v>158.0333323224218</v>
       </c>
       <c r="N46" t="n">
-        <v>226.2876142398187</v>
+        <v>226.2876142398184</v>
       </c>
       <c r="O46" t="n">
-        <v>273.9948943107608</v>
+        <v>273.9948943107605</v>
       </c>
       <c r="P46" t="n">
-        <v>291.5942327044651</v>
+        <v>291.5942327044648</v>
       </c>
       <c r="Q46" t="n">
-        <v>291.5942327044651</v>
+        <v>291.5942327044648</v>
       </c>
       <c r="R46" t="n">
-        <v>291.5942327044651</v>
+        <v>291.5942327044648</v>
       </c>
       <c r="S46" t="n">
-        <v>280.4190404639987</v>
+        <v>280.4190404639984</v>
       </c>
       <c r="T46" t="n">
-        <v>261.9279732167865</v>
+        <v>261.9279732167864</v>
       </c>
       <c r="U46" t="n">
-        <v>184.7234759406762</v>
+        <v>184.7234759406761</v>
       </c>
       <c r="V46" t="n">
-        <v>140.9640927764165</v>
+        <v>140.9640927764164</v>
       </c>
       <c r="W46" t="n">
-        <v>63.71357241975645</v>
+        <v>63.7135724197564</v>
       </c>
       <c r="X46" t="n">
-        <v>47.02084696724415</v>
+        <v>47.02084696724413</v>
       </c>
       <c r="Y46" t="n">
         <v>37.79447107487432</v>
@@ -7997,7 +7997,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8055,28 +8055,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7230231510059</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8228,7 +8228,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>396.0321885132552</v>
+        <v>396.0321885132551</v>
       </c>
       <c r="P5" t="n">
         <v>334.6706564983419</v>
@@ -8298,16 +8298,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>241.8851450194966</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>262.2514961538888</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
@@ -8535,10 +8535,10 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>261.3420437270311</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>256.5416321892494</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
@@ -8547,10 +8547,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540253</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -9006,7 +9006,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.043846493082</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>249.8137244861182</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>239.4333615617739</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>265.946664562463</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>290.1224922877164</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>297.4685616770244</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.79808416259802</v>
+        <v>83.79808416259803</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>104.8533165860893</v>
       </c>
       <c r="U11" t="n">
-        <v>129.7529431764021</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>211.3618503296949</v>
+        <v>119.5864566249977</v>
       </c>
       <c r="W11" t="n">
-        <v>233.3587458077301</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>253.6902279383449</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.91232029785934</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.98765021698004</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>103.5066308595594</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>38.49820782459704</v>
+        <v>137.837452740508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>168.9212056945911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>249.8137244861182</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>239.433361561774</v>
       </c>
       <c r="E14" t="n">
-        <v>214.6317599199605</v>
+        <v>49.40526702353632</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>297.4685616770245</v>
       </c>
       <c r="H14" t="n">
         <v>218.772378506685</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.7706054089553</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7980841625981</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>134.2892057810015</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>233.3587458077302</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>50.16518173837792</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>31.83419532169495</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>43.60591521304608</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>103.5066308595594</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>168.7544311421056</v>
+        <v>41.21981068437074</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.5773026749438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162783.8817229873</v>
+        <v>162783.8817229872</v>
       </c>
       <c r="C2" t="n">
         <v>162783.8817229873</v>
       </c>
       <c r="D2" t="n">
-        <v>162783.8817229873</v>
+        <v>162783.8817229872</v>
       </c>
       <c r="E2" t="n">
-        <v>139179.0431162599</v>
+        <v>139179.0431162598</v>
       </c>
       <c r="F2" t="n">
-        <v>139179.0431162597</v>
+        <v>139179.0431162598</v>
       </c>
       <c r="G2" t="n">
         <v>162783.8817229874</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>75474.20126435747</v>
+        <v>75474.20126435746</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>75474.20126435743</v>
       </c>
       <c r="M3" t="n">
-        <v>40831.60481685148</v>
+        <v>40831.60481685154</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>51385.84330624876</v>
+        <v>51385.84330624872</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,16 +26436,16 @@
         <v>235567.6636546943</v>
       </c>
       <c r="I4" t="n">
-        <v>235567.6636546943</v>
+        <v>235567.6636546944</v>
       </c>
       <c r="J4" t="n">
         <v>236500.9650092999</v>
       </c>
       <c r="K4" t="n">
-        <v>236500.9650093</v>
+        <v>236500.9650092999</v>
       </c>
       <c r="L4" t="n">
-        <v>236500.9650092999</v>
+        <v>236500.9650092998</v>
       </c>
       <c r="M4" t="n">
         <v>235594.7979685685</v>
@@ -26479,10 +26479,10 @@
         <v>39352.37878987544</v>
       </c>
       <c r="F5" t="n">
-        <v>39352.37878987543</v>
+        <v>39352.37878987544</v>
       </c>
       <c r="G5" t="n">
-        <v>47283.67957249201</v>
+        <v>47283.67957249202</v>
       </c>
       <c r="H5" t="n">
         <v>47283.67957249202</v>
@@ -26506,10 +26506,10 @@
         <v>47510.86773099857</v>
       </c>
       <c r="O5" t="n">
-        <v>47510.86773099855</v>
+        <v>47510.86773099856</v>
       </c>
       <c r="P5" t="n">
-        <v>47510.86773099855</v>
+        <v>47510.86773099856</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246515.1050303259</v>
+        <v>-246515.105030326</v>
       </c>
       <c r="C6" t="n">
         <v>-154596.2926625861</v>
       </c>
       <c r="D6" t="n">
-        <v>-154596.2926625861</v>
+        <v>-154596.2926625862</v>
       </c>
       <c r="E6" t="n">
-        <v>-262550.4806565006</v>
+        <v>-262845.5411390848</v>
       </c>
       <c r="F6" t="n">
-        <v>-68617.4058517181</v>
+        <v>-68912.46633430218</v>
       </c>
       <c r="G6" t="n">
         <v>-195541.6627685564</v>
@@ -26546,22 +26546,22 @@
         <v>-303592.1216408504</v>
       </c>
       <c r="K6" t="n">
-        <v>-128597.5709606715</v>
+        <v>-128597.5709606713</v>
       </c>
       <c r="L6" t="n">
-        <v>-204071.7722250288</v>
+        <v>-204071.7722250287</v>
       </c>
       <c r="M6" t="n">
-        <v>-161153.388793431</v>
+        <v>-161153.3887934311</v>
       </c>
       <c r="N6" t="n">
-        <v>-120321.7839765795</v>
+        <v>-120321.7839765796</v>
       </c>
       <c r="O6" t="n">
         <v>-171707.6272828282</v>
       </c>
       <c r="P6" t="n">
-        <v>-120321.7839765795</v>
+        <v>-120321.7839765796</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>211.5141227732712</v>
       </c>
       <c r="J2" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="K2" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="L2" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="M2" t="n">
         <v>209.6145617343221</v>
       </c>
       <c r="N2" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="O2" t="n">
         <v>209.6145617343221</v>
@@ -26750,7 +26750,7 @@
         <v>53.43959282804349</v>
       </c>
       <c r="G3" t="n">
-        <v>53.43959282804342</v>
+        <v>53.43959282804349</v>
       </c>
       <c r="H3" t="n">
         <v>53.43959282804349</v>
@@ -26796,13 +26796,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>466.0676917995811</v>
+        <v>466.0676917995812</v>
       </c>
       <c r="F4" t="n">
-        <v>466.0676917995811</v>
+        <v>466.0676917995812</v>
       </c>
       <c r="G4" t="n">
-        <v>466.0676917995811</v>
+        <v>466.0676917995812</v>
       </c>
       <c r="H4" t="n">
         <v>466.0676917995812</v>
@@ -26811,13 +26811,13 @@
         <v>466.0676917995813</v>
       </c>
       <c r="J4" t="n">
-        <v>664.2147728939076</v>
+        <v>664.2147728939077</v>
       </c>
       <c r="K4" t="n">
-        <v>664.2147728939076</v>
+        <v>664.2147728939077</v>
       </c>
       <c r="L4" t="n">
-        <v>664.2147728939076</v>
+        <v>664.2147728939077</v>
       </c>
       <c r="M4" t="n">
         <v>472.430888435929</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>94.34275158044684</v>
+        <v>94.34275158044682</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.23230413281101</v>
+        <v>64.23230413281097</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>94.34275158044679</v>
       </c>
       <c r="M2" t="n">
-        <v>51.03950602106434</v>
+        <v>51.03950602106443</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>64.23230413281095</v>
+        <v>64.2323041328109</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>191.7838844579786</v>
+        <v>191.7838844579787</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>472.4308884359288</v>
+        <v>472.4308884359289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>94.34275158044684</v>
+        <v>94.34275158044682</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.23230413281101</v>
+        <v>64.23230413281097</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>191.7838844579786</v>
+        <v>191.7838844579787</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>122.3094187286559</v>
       </c>
       <c r="E2" t="n">
-        <v>347.4124432514906</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>140.5709580622284</v>
@@ -27397,10 +27397,10 @@
         <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103.1763402730643</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>118.3296519674442</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.0836914906838</v>
+        <v>1.170564849075447</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>137.4289928041133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
         <v>146.9746241731992</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>342.3550023077468</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -27634,10 +27634,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>351.5801239404202</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>59.89029248330241</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>131.462360307784</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
-        <v>146.9746241731992</v>
+        <v>135.3980504627932</v>
       </c>
       <c r="F7" t="n">
         <v>146.1590214098045</v>
@@ -27798,7 +27798,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
-        <v>88.79763414316409</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
         <v>286.0925768874155</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>112.3587969879937</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>59.87500346338868</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27938,7 +27938,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -27947,7 +27947,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>117.7575665945744</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>190.6573243660415</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28026,7 +28026,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
@@ -28065,10 +28065,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>268.7732157583727</v>
       </c>
       <c r="V10" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
         <v>286.0925768874155</v>
@@ -28111,25 +28111,25 @@
         <v>117.1713711928245</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>117.1713711928245</v>
       </c>
       <c r="K11" t="n">
+        <v>45.55178640306926</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>117.1713711928245</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>117.1713711928245</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>117.1713711928245</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>45.55178640306889</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>117.1713711928245</v>
@@ -28169,16 +28169,16 @@
         <v>117.1713711928245</v>
       </c>
       <c r="C12" t="n">
-        <v>117.1713711928245</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>117.1713711928245</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>117.1713711928245</v>
+        <v>77.53895571969757</v>
       </c>
       <c r="F12" t="n">
-        <v>117.1713711928245</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>117.1713711928245</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>82.54598871358354</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>82.55124038915076</v>
+        <v>117.1713711928245</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>117.1713711928245</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>117.1713711928245</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>117.1713711928245</v>
       </c>
     </row>
     <row r="13">
@@ -28354,19 +28354,19 @@
         <v>117.1713711928244</v>
       </c>
       <c r="L14" t="n">
+        <v>45.55178640306946</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>117.1713711928244</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>45.55178640306934</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>117.1713711928244</v>
@@ -28406,19 +28406,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>117.1713711928244</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>117.1713711928244</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>117.1713711928244</v>
       </c>
       <c r="G15" t="n">
-        <v>85.35794330932748</v>
+        <v>117.1713711928244</v>
       </c>
       <c r="H15" t="n">
         <v>109.3523836031955</v>
@@ -28454,19 +28454,19 @@
         <v>87.55827338303665</v>
       </c>
       <c r="S15" t="n">
-        <v>117.1713711928244</v>
+        <v>85.35794330932681</v>
       </c>
       <c r="T15" t="n">
-        <v>117.1713711928244</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>117.1713711928244</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>117.1713711928244</v>
       </c>
       <c r="W15" t="n">
-        <v>117.1713711928244</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28585,13 +28585,13 @@
         <v>211.5141227732712</v>
       </c>
       <c r="J17" t="n">
-        <v>209.3906620518451</v>
+        <v>211.5141227732712</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>91.57948093156875</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28609,10 +28609,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>211.5141227732712</v>
+        <v>128.355848538125</v>
       </c>
       <c r="S17" t="n">
-        <v>211.5141227732712</v>
+        <v>200.9694553554225</v>
       </c>
       <c r="T17" t="n">
         <v>211.5141227732712</v>
@@ -28646,13 +28646,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>88.01477424468888</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.9082646657518</v>
@@ -28661,7 +28661,7 @@
         <v>109.3523836031955</v>
       </c>
       <c r="I18" t="n">
-        <v>82.54598871358354</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.55827338303666</v>
+        <v>87.55827338303665</v>
       </c>
       <c r="S18" t="n">
-        <v>166.8265509280334</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9192207213916</v>
+        <v>177.6799882597805</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>211.5141227732712</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>171.0618684356124</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -28743,10 +28743,10 @@
         <v>150.8605439601058</v>
       </c>
       <c r="J19" t="n">
-        <v>82.02573487165282</v>
+        <v>82.0257348716528</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.578376990908833</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.69132135881362</v>
+        <v>71.69132135881361</v>
       </c>
       <c r="R19" t="n">
         <v>169.0581603562167</v>
@@ -28773,7 +28773,7 @@
         <v>211.5141227732712</v>
       </c>
       <c r="T19" t="n">
-        <v>206.0706767091087</v>
+        <v>211.5141227732712</v>
       </c>
       <c r="U19" t="n">
         <v>211.5141227732712</v>
@@ -28819,34 +28819,34 @@
         <v>211.5141227732712</v>
       </c>
       <c r="I20" t="n">
+        <v>196.9419766017797</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>80.66435820997583</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>211.5141227732712</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>194.4480605766094</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>211.5141227732712</v>
       </c>
       <c r="R20" t="n">
-        <v>211.5141227732712</v>
+        <v>128.355848538125</v>
       </c>
       <c r="S20" t="n">
         <v>211.5141227732712</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,10 +28889,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>88.01477424468865</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9082646657518</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.3523836031955</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>87.55827338303665</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.8265509280334</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9192207213916</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>136.15822298657</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28971,7 +28971,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7932224512378</v>
+        <v>158.7713993961665</v>
       </c>
       <c r="H22" t="n">
         <v>160.7772864058705</v>
@@ -28983,7 +28983,7 @@
         <v>82.0257348716528</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.578376990908833</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>169.0581603562167</v>
       </c>
       <c r="S22" t="n">
-        <v>206.0706767091087</v>
+        <v>211.5141227732712</v>
       </c>
       <c r="T22" t="n">
         <v>211.5141227732712</v>
@@ -29062,28 +29062,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>81.03481351372074</v>
+      </c>
+      <c r="N23" t="n">
+        <v>196.5715212980357</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>211.5141227732712</v>
       </c>
-      <c r="L23" t="n">
-        <v>194.4480605766101</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>211.5141227732712</v>
+        <v>128.355848538125</v>
       </c>
       <c r="S23" t="n">
         <v>211.5141227732712</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,13 +29126,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.9082646657518</v>
       </c>
       <c r="H24" t="n">
-        <v>109.3523836031955</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>82.54598871358354</v>
@@ -29165,13 +29165,13 @@
         <v>87.55827338303665</v>
       </c>
       <c r="S24" t="n">
-        <v>166.8265509280334</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.9192207213916</v>
       </c>
       <c r="U24" t="n">
-        <v>88.01477424468777</v>
+        <v>49.66189276496644</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>82.0257348716528</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3.578376990908833</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>169.0581603562167</v>
       </c>
       <c r="S25" t="n">
-        <v>206.0706767091087</v>
+        <v>211.5141227732712</v>
       </c>
       <c r="T25" t="n">
         <v>211.5141227732712</v>
@@ -29259,7 +29259,7 @@
         <v>211.5141227732712</v>
       </c>
       <c r="X25" t="n">
-        <v>211.5141227732712</v>
+        <v>202.4922997181999</v>
       </c>
       <c r="Y25" t="n">
         <v>211.5141227732712</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="C26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="D26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="F26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="G26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="H26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="I26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="J26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="K26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="L26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="M26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="N26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="O26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="P26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="R26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132581</v>
       </c>
       <c r="S26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="T26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="W26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Y26" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>41.92686108987165</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.9082646657518</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.3523836031955</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.55827338303665</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="T27" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U27" t="n">
-        <v>135.6104344675985</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29430,25 +29430,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="C28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="H28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="I28" t="n">
         <v>150.8605439601058</v>
@@ -29457,19 +29457,19 @@
         <v>82.0257348716528</v>
       </c>
       <c r="K28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="L28" t="n">
-        <v>158.5750557132578</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>108.553846050002</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.95341450994397</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>71.69132135881361</v>
       </c>
       <c r="R28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="S28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="T28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="W28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Y28" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="C29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="D29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="F29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="G29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="H29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="I29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="J29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="K29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="L29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="M29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="N29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="O29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="P29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="R29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132581</v>
       </c>
       <c r="S29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="T29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="W29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Y29" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
     </row>
     <row r="30">
@@ -29594,16 +29594,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>69.45831685819192</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.9082646657518</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>109.3523836031955</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>87.55827338303665</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.5750557132579</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>158.5750557132579</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>135.610434467598</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29667,13 +29667,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="C31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="E31" t="n">
         <v>146.9746241731992</v>
@@ -29682,10 +29682,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="H31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="I31" t="n">
         <v>150.8605439601058</v>
@@ -29694,49 +29694,49 @@
         <v>82.0257348716528</v>
       </c>
       <c r="K31" t="n">
-        <v>3.578376990908833</v>
+        <v>98.98435685126405</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="N31" t="n">
-        <v>158.5750557132579</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>18.09173470464779</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>158.5750557132579</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>158.5750557132579</v>
+        <v>71.69132135881361</v>
       </c>
       <c r="R31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="S31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="T31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="W31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Y31" t="n">
-        <v>158.5750557132579</v>
+        <v>158.5750557132577</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="C32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="D32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="F32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="G32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="H32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="I32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="J32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="K32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="L32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="M32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="N32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="O32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="P32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="R32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="S32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="T32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="W32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Y32" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
     </row>
     <row r="33">
@@ -29834,19 +29834,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>124.4728498034547</v>
       </c>
       <c r="F33" t="n">
-        <v>135.6104344675986</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.9082646657518</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.3523836031955</v>
       </c>
       <c r="I33" t="n">
-        <v>82.54598871358354</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>87.55827338303665</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.5750557132578</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29888,13 +29888,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="C34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="D34" t="n">
-        <v>158.5750557132578</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>158.5750557132578</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>158.5750557132578</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="H34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="I34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="J34" t="n">
-        <v>158.5750557132578</v>
+        <v>82.0257348716528</v>
       </c>
       <c r="K34" t="n">
-        <v>158.5750557132578</v>
+        <v>3.578376990908833</v>
       </c>
       <c r="L34" t="n">
-        <v>62.39537977180777</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>10.37722295149818</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="R34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="S34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="T34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="U34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="V34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="W34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="X34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
       <c r="Y34" t="n">
-        <v>158.5750557132578</v>
+        <v>158.5750557132577</v>
       </c>
     </row>
     <row r="35">
@@ -30004,25 +30004,25 @@
         <v>209.6145617343221</v>
       </c>
       <c r="I35" t="n">
+        <v>196.9419766017797</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>209.6145617343221</v>
       </c>
-      <c r="J35" t="n">
-        <v>209.6145617343221</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>45.624966000862</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>17.627430689481</v>
+        <v>202.9347179343834</v>
       </c>
       <c r="O35" t="n">
-        <v>209.6145617343221</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>209.6145617343221</v>
       </c>
       <c r="S35" t="n">
-        <v>209.6145617343221</v>
+        <v>200.9694553554225</v>
       </c>
       <c r="T35" t="n">
         <v>209.6145617343221</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>135.9082646657518</v>
       </c>
       <c r="H36" t="n">
-        <v>109.3523836031955</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>82.54598871358354</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,16 +30113,16 @@
         <v>87.55827338303665</v>
       </c>
       <c r="S36" t="n">
-        <v>166.8265509280334</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9192207213916</v>
+        <v>98.64664693882484</v>
       </c>
       <c r="U36" t="n">
-        <v>88.01477424468914</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>209.6145617343221</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30156,13 +30156,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7932224512378</v>
+        <v>172.1551286011942</v>
       </c>
       <c r="H37" t="n">
         <v>160.7772864058705</v>
       </c>
       <c r="I37" t="n">
-        <v>155.2224501100622</v>
+        <v>150.8605439601058</v>
       </c>
       <c r="J37" t="n">
         <v>82.0257348716528</v>
@@ -30220,40 +30220,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="C38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="D38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="E38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="F38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="G38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="H38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="I38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="K38" t="n">
-        <v>17.62743068948095</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>17.62743068948117</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>209.6145617343221</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.6145617343221</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="S38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="U38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="V38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="W38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="X38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
     </row>
     <row r="39">
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.9082646657518</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3523836031955</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>82.54598871358354</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>87.55827338303665</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>166.8265509280334</v>
@@ -30356,16 +30356,16 @@
         <v>197.9192207213916</v>
       </c>
       <c r="U39" t="n">
-        <v>88.01477424468914</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>155.4118229182289</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>167.7932224512378</v>
       </c>
       <c r="H40" t="n">
-        <v>165.1391925558269</v>
+        <v>160.7772864058705</v>
       </c>
       <c r="I40" t="n">
         <v>150.8605439601058</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>4.361906149956035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>169.0581603562167</v>
       </c>
       <c r="S40" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="T40" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="U40" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="V40" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="W40" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="X40" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.6145617343221</v>
+        <v>209.6145617343222</v>
       </c>
     </row>
     <row r="41">
@@ -30481,34 +30481,34 @@
         <v>209.6145617343221</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>132.0239779814463</v>
       </c>
       <c r="K41" t="n">
-        <v>17.627430689481</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>191.8016778173924</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>202.9347179343834</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>209.6145617343221</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.6145617343221</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6145617343221</v>
+        <v>128.355848538125</v>
       </c>
       <c r="S41" t="n">
-        <v>209.6145617343221</v>
+        <v>200.9694553554225</v>
       </c>
       <c r="T41" t="n">
         <v>209.6145617343221</v>
@@ -30539,25 +30539,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.9082646657518</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.3523836031955</v>
       </c>
       <c r="I42" t="n">
-        <v>82.54598871358354</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>87.55827338303665</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.8265509280334</v>
+        <v>88.51427133656773</v>
       </c>
       <c r="T42" t="n">
-        <v>197.9192207213916</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>88.01477424468914</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>209.6145617343221</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>171.6984590811589</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -30636,7 +30636,7 @@
         <v>160.7772864058705</v>
       </c>
       <c r="I43" t="n">
-        <v>155.2224501100627</v>
+        <v>150.8605439601058</v>
       </c>
       <c r="J43" t="n">
         <v>82.0257348716528</v>
@@ -30715,25 +30715,25 @@
         <v>209.6145617343221</v>
       </c>
       <c r="I44" t="n">
-        <v>209.6145617343221</v>
+        <v>196.9419766017797</v>
       </c>
       <c r="J44" t="n">
-        <v>209.6145617343221</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>17.62743068948129</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>191.8016778173924</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>138.0167193140502</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30742,10 +30742,10 @@
         <v>209.6145617343221</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6145617343221</v>
+        <v>128.355848538125</v>
       </c>
       <c r="S44" t="n">
-        <v>209.6145617343221</v>
+        <v>200.9694553554225</v>
       </c>
       <c r="T44" t="n">
         <v>209.6145617343221</v>
@@ -30779,22 +30779,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>88.01477424468904</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.9082646657518</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.3523836031955</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>82.54598871358354</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,22 +30824,22 @@
         <v>87.55827338303665</v>
       </c>
       <c r="S45" t="n">
-        <v>166.8265509280334</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.9192207213916</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>209.6145617343221</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>209.6145617343221</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>10.76400622487637</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184.4455976406407</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30873,7 +30873,7 @@
         <v>160.7772864058705</v>
       </c>
       <c r="I46" t="n">
-        <v>150.8605439601058</v>
+        <v>155.2224501100624</v>
       </c>
       <c r="J46" t="n">
         <v>82.0257348716528</v>
@@ -31847,7 +31847,7 @@
         <v>24.95780229200276</v>
       </c>
       <c r="M12" t="n">
-        <v>29.1245780912837</v>
+        <v>29.12457809128409</v>
       </c>
       <c r="N12" t="n">
         <v>29.89541901047312</v>
@@ -32090,7 +32090,7 @@
         <v>29.89541901047312</v>
       </c>
       <c r="O15" t="n">
-        <v>27.34846785040448</v>
+        <v>27.34846785040486</v>
       </c>
       <c r="P15" t="n">
         <v>21.94955653346564</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.214832533982084</v>
+        <v>0.2148325339820842</v>
       </c>
       <c r="H17" t="n">
-        <v>2.200153688644018</v>
+        <v>2.20015368864402</v>
       </c>
       <c r="I17" t="n">
-        <v>8.282331266344299</v>
+        <v>8.282331266344309</v>
       </c>
       <c r="J17" t="n">
-        <v>18.23364278106191</v>
+        <v>18.23364278106193</v>
       </c>
       <c r="K17" t="n">
-        <v>27.32750394452354</v>
+        <v>27.32750394452357</v>
       </c>
       <c r="L17" t="n">
-        <v>33.90218510637774</v>
+        <v>33.90218510637779</v>
       </c>
       <c r="M17" t="n">
-        <v>37.72271318258163</v>
+        <v>37.72271318258167</v>
       </c>
       <c r="N17" t="n">
-        <v>38.33310611975823</v>
+        <v>38.33310611975827</v>
       </c>
       <c r="O17" t="n">
-        <v>36.19686510997388</v>
+        <v>36.19686510997392</v>
       </c>
       <c r="P17" t="n">
-        <v>30.89318692729117</v>
+        <v>30.89318692729121</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.19949680405778</v>
+        <v>23.19949680405781</v>
       </c>
       <c r="R17" t="n">
-        <v>13.49497416275209</v>
+        <v>13.49497416275211</v>
       </c>
       <c r="S17" t="n">
-        <v>4.895496368116743</v>
+        <v>4.895496368116749</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9404294175065729</v>
+        <v>0.9404294175065741</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01718660271856671</v>
+        <v>0.01718660271856673</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1149455392905085</v>
+        <v>0.1149455392905086</v>
       </c>
       <c r="H18" t="n">
-        <v>1.11013191893728</v>
+        <v>1.110131918937281</v>
       </c>
       <c r="I18" t="n">
-        <v>3.957554751888122</v>
+        <v>3.957554751888127</v>
       </c>
       <c r="J18" t="n">
-        <v>10.8598327274423</v>
+        <v>10.85983272744231</v>
       </c>
       <c r="K18" t="n">
-        <v>18.56118385990637</v>
+        <v>18.56118385990639</v>
       </c>
       <c r="L18" t="n">
-        <v>24.95780229200274</v>
+        <v>24.95780229200276</v>
       </c>
       <c r="M18" t="n">
-        <v>29.12457809128366</v>
+        <v>29.1245780912837</v>
       </c>
       <c r="N18" t="n">
-        <v>29.89541901047309</v>
+        <v>29.89541901047312</v>
       </c>
       <c r="O18" t="n">
-        <v>27.34846785040445</v>
+        <v>27.34846785040448</v>
       </c>
       <c r="P18" t="n">
-        <v>21.94955653346561</v>
+        <v>21.94955653346564</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.67269726101298</v>
+        <v>14.672697261013</v>
       </c>
       <c r="R18" t="n">
-        <v>7.136706378054557</v>
+        <v>7.136706378054566</v>
       </c>
       <c r="S18" t="n">
-        <v>2.135062977610979</v>
+        <v>2.135062977610982</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4633111868770933</v>
+        <v>0.4633111868770938</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007562206532270299</v>
+        <v>0.007562206532270308</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09636647887024223</v>
+        <v>0.09636647887024234</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8567856030463361</v>
+        <v>0.8567856030463371</v>
       </c>
       <c r="I19" t="n">
-        <v>2.898002837297831</v>
+        <v>2.898002837297834</v>
       </c>
       <c r="J19" t="n">
-        <v>6.813110056126125</v>
+        <v>6.813110056126133</v>
       </c>
       <c r="K19" t="n">
-        <v>11.1960327269245</v>
+        <v>11.19603272692452</v>
       </c>
       <c r="L19" t="n">
-        <v>14.32706723130856</v>
+        <v>14.32706723130858</v>
       </c>
       <c r="M19" t="n">
-        <v>15.10588359235988</v>
+        <v>15.10588359235989</v>
       </c>
       <c r="N19" t="n">
-        <v>14.74669944384353</v>
+        <v>14.74669944384355</v>
       </c>
       <c r="O19" t="n">
-        <v>13.62096375885933</v>
+        <v>13.62096375885935</v>
       </c>
       <c r="P19" t="n">
-        <v>11.65508758990638</v>
+        <v>11.6550875899064</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.069378517034556</v>
+        <v>8.069378517034567</v>
       </c>
       <c r="R19" t="n">
-        <v>4.332987313565618</v>
+        <v>4.332987313565623</v>
       </c>
       <c r="S19" t="n">
-        <v>1.679404909038675</v>
+        <v>1.679404909038677</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4117476824455803</v>
+        <v>0.4117476824455808</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005256353392922309</v>
+        <v>0.005256353392922315</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>18.56118385990639</v>
       </c>
       <c r="L21" t="n">
-        <v>24.95780229200276</v>
+        <v>24.95780229200318</v>
       </c>
       <c r="M21" t="n">
         <v>29.1245780912837</v>
@@ -34717,7 +34717,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>4.327620151005933</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>171.6864323771106</v>
+        <v>171.6864323771105</v>
       </c>
       <c r="P5" t="n">
         <v>109.2184856369541</v>
@@ -35018,16 +35018,16 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>106.7946247341192</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>134.1933268726387</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
@@ -35255,10 +35255,10 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>126.2515234416537</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>274.2838073416025</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
@@ -35267,10 +35267,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.57436564649952</v>
+        <v>134.745736839324</v>
       </c>
       <c r="K11" t="n">
-        <v>267.0224994425034</v>
+        <v>195.4029146527481</v>
       </c>
       <c r="L11" t="n">
-        <v>355.5689648359331</v>
+        <v>238.3975936431086</v>
       </c>
       <c r="M11" t="n">
-        <v>280.6292106185366</v>
+        <v>397.800581811361</v>
       </c>
       <c r="N11" t="n">
-        <v>386.6675416943701</v>
+        <v>269.4961705015456</v>
       </c>
       <c r="O11" t="n">
-        <v>207.8832974870845</v>
+        <v>325.054668679909</v>
       </c>
       <c r="P11" t="n">
-        <v>185.6634589673142</v>
+        <v>140.1116725642453</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4304106555949</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.32782348146761</v>
+        <v>18.32782348146746</v>
       </c>
       <c r="K12" t="n">
         <v>159.2096273529882</v>
@@ -35495,7 +35495,7 @@
         <v>275.541241122223</v>
       </c>
       <c r="M12" t="n">
-        <v>374.8771613173158</v>
+        <v>374.8771613173162</v>
       </c>
       <c r="N12" t="n">
         <v>400.3533190465188</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>35.14563632117166</v>
+        <v>35.14563632117165</v>
       </c>
       <c r="K13" t="n">
         <v>113.5929942019156</v>
@@ -35580,13 +35580,13 @@
         <v>186.1150903013059</v>
       </c>
       <c r="O13" t="n">
-        <v>165.3605429816549</v>
+        <v>165.3605429816548</v>
       </c>
       <c r="P13" t="n">
         <v>134.9484806814147</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.48004983401086</v>
+        <v>45.48004983401084</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>267.0224994425033</v>
       </c>
       <c r="L14" t="n">
-        <v>355.568964835933</v>
+        <v>283.9493800461781</v>
       </c>
       <c r="M14" t="n">
         <v>280.6292106185366</v>
       </c>
       <c r="N14" t="n">
-        <v>269.4961705015456</v>
+        <v>386.66754169437</v>
       </c>
       <c r="O14" t="n">
         <v>207.8832974870845</v>
       </c>
       <c r="P14" t="n">
-        <v>185.6634589673147</v>
+        <v>140.1116725642453</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4304106555948</v>
@@ -35726,7 +35726,7 @@
         <v>18.32782348146746</v>
       </c>
       <c r="K15" t="n">
-        <v>159.2096273529883</v>
+        <v>159.2096273529882</v>
       </c>
       <c r="L15" t="n">
         <v>275.541241122223</v>
@@ -35738,7 +35738,7 @@
         <v>400.3533190465188</v>
       </c>
       <c r="O15" t="n">
-        <v>297.9339415648698</v>
+        <v>297.9339415648702</v>
       </c>
       <c r="P15" t="n">
         <v>222.5257886900283</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35.14563632117158</v>
+        <v>35.14563632117161</v>
       </c>
       <c r="K16" t="n">
-        <v>113.5929942019155</v>
+        <v>113.5929942019156</v>
       </c>
       <c r="L16" t="n">
-        <v>168.9595686531422</v>
+        <v>168.9595686531423</v>
       </c>
       <c r="M16" t="n">
-        <v>182.4746627820928</v>
+        <v>182.4746627820929</v>
       </c>
       <c r="N16" t="n">
-        <v>186.1150903013058</v>
+        <v>186.1150903013059</v>
       </c>
       <c r="O16" t="n">
         <v>165.3605429816548</v>
       </c>
       <c r="P16" t="n">
-        <v>134.9484806814146</v>
+        <v>134.9484806814147</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.48004983401077</v>
+        <v>45.4800498340108</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,22 +35878,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>14.57214617149151</v>
+        <v>14.57214617149152</v>
       </c>
       <c r="J17" t="n">
-        <v>226.9650276983446</v>
+        <v>229.0884884197708</v>
       </c>
       <c r="K17" t="n">
         <v>149.8511282496789</v>
       </c>
       <c r="L17" t="n">
-        <v>238.3975936431086</v>
+        <v>329.9770745746774</v>
       </c>
       <c r="M17" t="n">
-        <v>280.6292106185365</v>
+        <v>280.6292106185366</v>
       </c>
       <c r="N17" t="n">
-        <v>466.0676917995811</v>
+        <v>466.0676917995812</v>
       </c>
       <c r="O17" t="n">
         <v>207.8832974870845</v>
@@ -35902,13 +35902,13 @@
         <v>140.1116725642453</v>
       </c>
       <c r="Q17" t="n">
-        <v>27.2590394627704</v>
+        <v>27.25903946277043</v>
       </c>
       <c r="R17" t="n">
-        <v>83.15827423514625</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.54466741784873</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.32782348146745</v>
+        <v>18.32782348146746</v>
       </c>
       <c r="K18" t="n">
         <v>159.2096273529882</v>
       </c>
       <c r="L18" t="n">
-        <v>275.5412411222229</v>
+        <v>275.541241122223</v>
       </c>
       <c r="M18" t="n">
-        <v>374.8771613173157</v>
+        <v>374.8771613173158</v>
       </c>
       <c r="N18" t="n">
-        <v>400.3533190465187</v>
+        <v>400.3533190465188</v>
       </c>
       <c r="O18" t="n">
         <v>297.9339415648698</v>
@@ -35981,7 +35981,7 @@
         <v>222.5257886900283</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.67084677242508</v>
+        <v>96.67084677242509</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>51.78819746031785</v>
+        <v>51.78819746031786</v>
       </c>
       <c r="M19" t="n">
-        <v>65.30329158926844</v>
+        <v>65.30329158926847</v>
       </c>
       <c r="N19" t="n">
-        <v>68.94371910848142</v>
+        <v>68.94371910848145</v>
       </c>
       <c r="O19" t="n">
-        <v>48.18917178883039</v>
+        <v>48.18917178883041</v>
       </c>
       <c r="P19" t="n">
-        <v>17.77710948859022</v>
+        <v>17.77710948859024</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>14.57214617149152</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>17.57436564649952</v>
@@ -36127,22 +36127,22 @@
         <v>238.3975936431086</v>
       </c>
       <c r="M20" t="n">
-        <v>280.6292106185366</v>
+        <v>361.2935688285124</v>
       </c>
       <c r="N20" t="n">
         <v>269.4961705015456</v>
       </c>
       <c r="O20" t="n">
-        <v>207.8832974870845</v>
+        <v>419.3974202603558</v>
       </c>
       <c r="P20" t="n">
-        <v>334.5597331408547</v>
+        <v>140.1116725642453</v>
       </c>
       <c r="Q20" t="n">
         <v>238.7731622360417</v>
       </c>
       <c r="R20" t="n">
-        <v>83.15827423514627</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>10.54466741784874</v>
@@ -36203,7 +36203,7 @@
         <v>159.2096273529882</v>
       </c>
       <c r="L21" t="n">
-        <v>275.541241122223</v>
+        <v>275.5412411222234</v>
       </c>
       <c r="M21" t="n">
         <v>374.8771613173158</v>
@@ -36358,16 +36358,16 @@
         <v>17.57436564649952</v>
       </c>
       <c r="K23" t="n">
-        <v>361.3652510229501</v>
+        <v>149.8511282496789</v>
       </c>
       <c r="L23" t="n">
-        <v>432.8456542197187</v>
+        <v>238.3975936431086</v>
       </c>
       <c r="M23" t="n">
-        <v>280.6292106185366</v>
+        <v>361.6640241322573</v>
       </c>
       <c r="N23" t="n">
-        <v>269.4961705015456</v>
+        <v>466.0676917995813</v>
       </c>
       <c r="O23" t="n">
         <v>207.8832974870845</v>
@@ -36376,10 +36376,10 @@
         <v>140.1116725642453</v>
       </c>
       <c r="Q23" t="n">
-        <v>27.25903946277043</v>
+        <v>238.7731622360417</v>
       </c>
       <c r="R23" t="n">
-        <v>83.15827423514627</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>10.54466741784874</v>
@@ -36595,7 +36595,7 @@
         <v>176.1494213597573</v>
       </c>
       <c r="K26" t="n">
-        <v>308.4261839629367</v>
+        <v>308.4261839629366</v>
       </c>
       <c r="L26" t="n">
         <v>396.9726493563664</v>
@@ -36604,7 +36604,7 @@
         <v>439.2042663317944</v>
       </c>
       <c r="N26" t="n">
-        <v>428.0712262148034</v>
+        <v>428.0712262148033</v>
       </c>
       <c r="O26" t="n">
         <v>366.4583532003423</v>
@@ -36616,7 +36616,7 @@
         <v>185.8340951760282</v>
       </c>
       <c r="R26" t="n">
-        <v>30.2192071751328</v>
+        <v>30.21920717513313</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>11.60043154005857</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>154.9966787223489</v>
       </c>
       <c r="L28" t="n">
-        <v>210.3632531735756</v>
+        <v>51.78819746031786</v>
       </c>
       <c r="M28" t="n">
-        <v>173.8571376392705</v>
+        <v>65.30329158926847</v>
       </c>
       <c r="N28" t="n">
-        <v>68.94371910848145</v>
+        <v>227.5187748217392</v>
       </c>
       <c r="O28" t="n">
-        <v>48.18917178883041</v>
+        <v>145.1425862987744</v>
       </c>
       <c r="P28" t="n">
         <v>17.77710948859024</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.1494213597574</v>
+        <v>176.1494213597573</v>
       </c>
       <c r="K29" t="n">
-        <v>308.4261839629368</v>
+        <v>308.4261839629366</v>
       </c>
       <c r="L29" t="n">
-        <v>396.9726493563665</v>
+        <v>396.9726493563664</v>
       </c>
       <c r="M29" t="n">
-        <v>439.2042663317945</v>
+        <v>439.2042663317944</v>
       </c>
       <c r="N29" t="n">
-        <v>428.0712262148035</v>
+        <v>428.0712262148033</v>
       </c>
       <c r="O29" t="n">
-        <v>366.4583532003424</v>
+        <v>366.4583532003423</v>
       </c>
       <c r="P29" t="n">
-        <v>298.6867282775032</v>
+        <v>298.6867282775031</v>
       </c>
       <c r="Q29" t="n">
-        <v>185.8340951760283</v>
+        <v>185.8340951760282</v>
       </c>
       <c r="R29" t="n">
-        <v>30.21920717513288</v>
+        <v>30.21920717513313</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9.569489198738381</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>95.40597986035522</v>
       </c>
       <c r="L31" t="n">
-        <v>51.78819746031786</v>
+        <v>210.3632531735756</v>
       </c>
       <c r="M31" t="n">
-        <v>65.30329158926847</v>
+        <v>223.8783473025262</v>
       </c>
       <c r="N31" t="n">
-        <v>227.5187748217393</v>
+        <v>68.94371910848145</v>
       </c>
       <c r="O31" t="n">
-        <v>66.2809064934782</v>
+        <v>48.18917178883041</v>
       </c>
       <c r="P31" t="n">
-        <v>176.3521652018481</v>
+        <v>17.77710948859024</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.88373435444424</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>176.1494213597573</v>
+        <v>176.1494213597572</v>
       </c>
       <c r="K32" t="n">
-        <v>308.4261839629367</v>
+        <v>308.4261839629366</v>
       </c>
       <c r="L32" t="n">
-        <v>396.9726493563664</v>
+        <v>396.9726493563663</v>
       </c>
       <c r="M32" t="n">
-        <v>439.2042663317944</v>
+        <v>439.2042663317943</v>
       </c>
       <c r="N32" t="n">
-        <v>428.0712262148034</v>
+        <v>428.0712262148033</v>
       </c>
       <c r="O32" t="n">
-        <v>366.4583532003423</v>
+        <v>366.4583532003422</v>
       </c>
       <c r="P32" t="n">
-        <v>298.6867282775032</v>
+        <v>298.6867282775031</v>
       </c>
       <c r="Q32" t="n">
-        <v>185.8340951760282</v>
+        <v>185.8340951760281</v>
       </c>
       <c r="R32" t="n">
-        <v>30.21920717513283</v>
+        <v>30.21920717513274</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.569489198738438</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>11.60043154005862</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>12.4160343034533</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>7.714511753152006</v>
+        <v>7.714511753151921</v>
       </c>
       <c r="J34" t="n">
-        <v>76.549320841605</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>154.996678722349</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>114.1835772321256</v>
+        <v>51.78819746031786</v>
       </c>
       <c r="M34" t="n">
-        <v>65.30329158926847</v>
+        <v>75.68051454076665</v>
       </c>
       <c r="N34" t="n">
-        <v>68.94371910848145</v>
+        <v>227.5187748217391</v>
       </c>
       <c r="O34" t="n">
-        <v>48.18917178883041</v>
+        <v>206.7642275020881</v>
       </c>
       <c r="P34" t="n">
         <v>17.77710948859024</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.88373435444419</v>
+        <v>86.8837343544441</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>12.67258513254243</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>227.1889273808217</v>
+        <v>17.57436564649952</v>
       </c>
       <c r="K35" t="n">
-        <v>149.8511282496789</v>
+        <v>359.465689984001</v>
       </c>
       <c r="L35" t="n">
-        <v>238.3975936431086</v>
+        <v>284.0225596439706</v>
       </c>
       <c r="M35" t="n">
         <v>280.6292106185366</v>
       </c>
       <c r="N35" t="n">
-        <v>287.1236011910266</v>
+        <v>472.430888435929</v>
       </c>
       <c r="O35" t="n">
-        <v>417.4978592214067</v>
+        <v>207.8832974870845</v>
       </c>
       <c r="P35" t="n">
         <v>140.1116725642453</v>
@@ -37330,7 +37330,7 @@
         <v>81.25871319619718</v>
       </c>
       <c r="S35" t="n">
-        <v>8.645106378899651</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.361906149956413</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.36190614995642</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>12.67258513254243</v>
+        <v>12.67258513254249</v>
       </c>
       <c r="J38" t="n">
-        <v>17.57436564649952</v>
+        <v>227.1889273808217</v>
       </c>
       <c r="K38" t="n">
-        <v>167.4785589391598</v>
+        <v>149.8511282496789</v>
       </c>
       <c r="L38" t="n">
-        <v>238.3975936431086</v>
+        <v>448.0121553774308</v>
       </c>
       <c r="M38" t="n">
-        <v>280.6292106185366</v>
+        <v>298.2566413080178</v>
       </c>
       <c r="N38" t="n">
         <v>269.4961705015456</v>
@@ -37558,16 +37558,16 @@
         <v>207.8832974870845</v>
       </c>
       <c r="P38" t="n">
-        <v>349.7262342985675</v>
+        <v>140.1116725642453</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.8736011970926</v>
+        <v>27.25903946277043</v>
       </c>
       <c r="R38" t="n">
-        <v>81.25871319619718</v>
+        <v>81.25871319619723</v>
       </c>
       <c r="S38" t="n">
-        <v>8.645106378899651</v>
+        <v>8.645106378899708</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.36190614995642</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>68.94371910848145</v>
       </c>
       <c r="O40" t="n">
-        <v>48.18917178883041</v>
+        <v>52.55107793878644</v>
       </c>
       <c r="P40" t="n">
         <v>17.77710948859024</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>12.67258513254238</v>
+        <v>12.6725851325424</v>
       </c>
       <c r="J41" t="n">
-        <v>17.57436564649952</v>
+        <v>149.5983436279458</v>
       </c>
       <c r="K41" t="n">
-        <v>167.4785589391599</v>
+        <v>149.8511282496789</v>
       </c>
       <c r="L41" t="n">
         <v>238.3975936431086</v>
       </c>
       <c r="M41" t="n">
-        <v>280.6292106185366</v>
+        <v>472.430888435929</v>
       </c>
       <c r="N41" t="n">
-        <v>269.4961705015456</v>
+        <v>472.430888435929</v>
       </c>
       <c r="O41" t="n">
         <v>207.8832974870845</v>
       </c>
       <c r="P41" t="n">
-        <v>349.7262342985674</v>
+        <v>140.1116725642453</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.8736011970925</v>
+        <v>27.25903946277043</v>
       </c>
       <c r="R41" t="n">
-        <v>81.25871319619712</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.645106378899595</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>4.361906149956585</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.361906149956879</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -38011,25 +38011,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>12.67258513254238</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>227.1889273808216</v>
+        <v>17.57436564649952</v>
       </c>
       <c r="K44" t="n">
-        <v>167.4785589391602</v>
+        <v>149.8511282496789</v>
       </c>
       <c r="L44" t="n">
         <v>238.3975936431086</v>
       </c>
       <c r="M44" t="n">
-        <v>280.6292106185366</v>
+        <v>472.430888435929</v>
       </c>
       <c r="N44" t="n">
         <v>269.4961705015456</v>
       </c>
       <c r="O44" t="n">
-        <v>207.8832974870845</v>
+        <v>345.9000168011347</v>
       </c>
       <c r="P44" t="n">
         <v>140.1116725642453</v>
@@ -38038,10 +38038,10 @@
         <v>236.8736011970925</v>
       </c>
       <c r="R44" t="n">
-        <v>81.25871319619712</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.645106378899595</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.361906149956879</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.361906149956585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
